--- a/hi_data_from_en.xlsx
+++ b/hi_data_from_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkapelusnikov/Documents/GitHub/TranslatedReadMe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBA95FC-635A-224D-8CAE-A55BE6227743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B54B670-BA5C-4B45-874F-A70B4FF54B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="1200" windowWidth="30240" windowHeight="17660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" पत्रक 1" sheetId="1" r:id="rId1"/>
@@ -27,898 +27,898 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
-    <t>वाक्य</t>
-  </si>
-  <si>
-    <t> रेटिंग</t>
-  </si>
-  <si>
-    <t> यह मूल्य निर्धारण नियम उत्पादन की लागत (पी - एमसी) पर मूल्य मार्कअप को मांग की कीमत लोच से संबंधित करता है।</t>
-  </si>
-  <si>
-    <t> आपूर्ति की क्रॉस कीमत लोच एक वस्तु की आपूर्ति की प्रतिक्रिया को पकड़ती है, जब किसी अन्य वस्तु की कीमत में बदलाव होता है।</t>
-  </si>
-  <si>
-    <t> उत्पादन में पूरक वे वस्तुएँ हैं जो एक निश्चित अनुपात में एक साथ उत्पादित की जाती हैं।</t>
-  </si>
-  <si>
-    <t> यदि मूल्य सीमा P' पर निर्धारित है, तो संतुलन मात्रा मांग की गई मात्रा और आपूर्ति की गई मात्रा के न्यूनतम पर पाई जाती है, जैसा कि समीकरण 2.1 में है।</t>
-  </si>
-  <si>
-    <t> अमेरिका में खट्टे फलों का एक बड़ा हिस्सा फ्लोरिडा और कैलिफोर्निया में उगाया जाता है।</t>
-  </si>
-  <si>
-    <t> पुनर्प्राप्ति: दूर संग्रहीत यादों को वापस लाने या पुनः सक्रिय करने की प्रक्रिया</t>
-  </si>
-  <si>
-    <t> एरिकसन ने आठ चरणों की पहचान की, जिनमें से प्रत्येक एक संघर्ष या विकासात्मक कार्य का प्रतिनिधित्व करता है।</t>
-  </si>
-  <si>
-    <t> मुझे लगता है कि पिंक रिबन आंदोलन की लोकप्रियता विशिष्ट विपणन के माध्यम से आई है जो इस तथ्य पर निर्भर करता है कि, एक संस्कृति के रूप में, हम महिलाओं के शरीर के प्रति आसक्त हैं।</t>
+    <t>यह मूल्य निर्धारण नियम उत्पादन की लागत (पी - एमसी) पर मूल्य मार्कअप को मांग की कीमत लोच से संबंधित करता है।</t>
+  </si>
+  <si>
+    <t>आपूर्ति की क्रॉस कीमत लोच एक वस्तु की आपूर्ति की प्रतिक्रिया को पकड़ती है, जब किसी अन्य वस्तु की कीमत में बदलाव होता है।</t>
+  </si>
+  <si>
+    <t>उत्पादन में पूरक वे वस्तुएँ हैं जो एक निश्चित अनुपात में एक साथ उत्पादित की जाती हैं।</t>
+  </si>
+  <si>
+    <t>यदि मूल्य सीमा P' पर निर्धारित है, तो संतुलन मात्रा मांग की गई मात्रा और आपूर्ति की गई मात्रा के न्यूनतम पर पाई जाती है, जैसा कि समीकरण 2.1 में है।</t>
+  </si>
+  <si>
+    <t>अमेरिका में खट्टे फलों का एक बड़ा हिस्सा फ्लोरिडा और कैलिफोर्निया में उगाया जाता है।</t>
+  </si>
+  <si>
+    <t>पुनर्प्राप्ति: दूर संग्रहीत यादों को वापस लाने या पुनः सक्रिय करने की प्रक्रिया</t>
+  </si>
+  <si>
+    <t>एरिकसन ने आठ चरणों की पहचान की, जिनमें से प्रत्येक एक संघर्ष या विकासात्मक कार्य का प्रतिनिधित्व करता है।</t>
+  </si>
+  <si>
+    <t>मुझे लगता है कि पिंक रिबन आंदोलन की लोकप्रियता विशिष्ट विपणन के माध्यम से आई है जो इस तथ्य पर निर्भर करता है कि, एक संस्कृति के रूप में, हम महिलाओं के शरीर के प्रति आसक्त हैं।</t>
   </si>
   <si>
     <t>जब इसे अच्छी तरह से संभाला जाता है तो ये प्रभावशाली परिणाम पुनर्स्थापन की शक्ति को प्रकट करते हैं।</t>
   </si>
   <si>
-    <t> विवेकाधीन आय: विवेकाधीन आय व्यक्तिगत आयकर और आवश्यकताओं का भुगतान करने के बाद निवेश, बचत या खर्च करने के लिए हमारे पास बची हुई धनराशि का प्रतिनिधित्व करती है।</t>
-  </si>
-  <si>
-    <t> हमलावर द्वारा बफ़र पर शेलकोड लिखने के बाद दाहिना भाग परिणाम दिखाता है, और, ओवरफ़्लो द्वारा, स्टैक पर रिटर्न_एड्रेस फ़ील्ड को भी ओवरराइट कर दिया है ताकि यह अब शेलकोड को इंगित करे।</t>
-  </si>
-  <si>
-    <t> अक्सर क्वांटम बाइट्स की एक संख्या होती है जो कम से कम नेटवर्क एमटीयू जितनी बड़ी होती है; इस मामले में, प्रत्येक उपकतार को प्रत्येक दौर में कम से कम एक पैकेट भेजने की अनुमति होगी।</t>
-  </si>
-  <si>
-    <t> फिर यह उस दर पर भेजने की अनुमति देता है; यानी, टीएफआरसी विंडो-आधारित के बजाय दर-आधारित है।</t>
-  </si>
-  <si>
-    <t> डाउनस्ट्रीम ट्रैफ़िक को चिह्नित किया जाता है (सीएमटीएस पर या नेटवर्क में इससे भी ऊपर) यदि उपयोगकर्ता का डाउन-स्ट्रीम उपयोग अधिक है; यदि अपस्ट्रीम उपयोग अधिक है तो अपस्ट्रीम ट्रैफ़िक को नेटवर्क से उपयोगकर्ता के कनेक्शन पर चिह्नित किया जाता है</t>
+    <t>विवेकाधीन आय: विवेकाधीन आय व्यक्तिगत आयकर और आवश्यकताओं का भुगतान करने के बाद निवेश, बचत या खर्च करने के लिए हमारे पास बची हुई धनराशि का प्रतिनिधित्व करती है।</t>
+  </si>
+  <si>
+    <t>हमलावर द्वारा बफ़र पर शेलकोड लिखने के बाद दाहिना भाग परिणाम दिखाता है, और, ओवरफ़्लो द्वारा, स्टैक पर रिटर्न_एड्रेस फ़ील्ड को भी ओवरराइट कर दिया है ताकि यह अब शेलकोड को इंगित करे।</t>
+  </si>
+  <si>
+    <t>अक्सर क्वांटम बाइट्स की एक संख्या होती है जो कम से कम नेटवर्क एमटीयू जितनी बड़ी होती है; इस मामले में, प्रत्येक उपकतार को प्रत्येक दौर में कम से कम एक पैकेट भेजने की अनुमति होगी।</t>
+  </si>
+  <si>
+    <t>फिर यह उस दर पर भेजने की अनुमति देता है; यानी, टीएफआरसी विंडो-आधारित के बजाय दर-आधारित है।</t>
+  </si>
+  <si>
+    <t>डाउनस्ट्रीम ट्रैफ़िक को चिह्नित किया जाता है (सीएमटीएस पर या नेटवर्क में इससे भी ऊपर) यदि उपयोगकर्ता का डाउन-स्ट्रीम उपयोग अधिक है; यदि अपस्ट्रीम उपयोग अधिक है तो अपस्ट्रीम ट्रैफ़िक को नेटवर्क से उपयोगकर्ता के कनेक्शन पर चिह्नित किया जाता है</t>
   </si>
   <si>
     <t>दो विशिष्ट लिंक-स्टेट प्रोटोकॉल हैं: IETF का ओपन शॉर्टेस्ट पाथ फर्स्ट (OSPF, RFC 2328), और OSI का इंटरमीडिएट सिस्टम टू इंटरमीडिएट सिस्टम (IS-IS, RFC 1142 में अनौपचारिक रूप से प्रलेखित)</t>
   </si>
   <si>
-    <t> कानूनी मनोविज्ञान एक अनुसंधान-उन्मुख क्षेत्र है जो मनोविज्ञान के भीतर कई अलग-अलग क्षेत्रों के शोधकर्ताओं से भरा हुआ है (हालांकि सामाजिक मनोवैज्ञानिक विशिष्ट हैं)</t>
-  </si>
-  <si>
-    <t> परामर्श परामर्श मनोविज्ञान एक मनोविज्ञान विशेषता है जो भावनात्मक, सामाजिक, व्यावसायिक, शैक्षिक, स्वास्थ्य संबंधी, विकासात्मक और संगठनात्मक चिंताओं पर ध्यान देने के साथ जीवन भर व्यक्तिगत और पारस्परिक कामकाज की सुविधा प्रदान करती है।</t>
-  </si>
-  <si>
-    <t> वे तंत्रिका तंत्र के मूल ऊतक और तत्व हैं</t>
-  </si>
-  <si>
-    <t> संज्ञानात्मक विज्ञान संज्ञानात्मक मनोविज्ञान से बहुत निकटता से संबंधित है, लेकिन उपयोग की जाने वाली कुछ शोध विधियों में भिन्न है, और व्यवहार और तंत्रिका प्रसंस्करण दोनों के संदर्भ में मानसिक घटनाओं को समझाने पर थोड़ा अधिक जोर दिया गया है।</t>
+    <t>कानूनी मनोविज्ञान एक अनुसंधान-उन्मुख क्षेत्र है जो मनोविज्ञान के भीतर कई अलग-अलग क्षेत्रों के शोधकर्ताओं से भरा हुआ है (हालांकि सामाजिक मनोवैज्ञानिक विशिष्ट हैं)</t>
+  </si>
+  <si>
+    <t>परामर्श परामर्श मनोविज्ञान एक मनोविज्ञान विशेषता है जो भावनात्मक, सामाजिक, व्यावसायिक, शैक्षिक, स्वास्थ्य संबंधी, विकासात्मक और संगठनात्मक चिंताओं पर ध्यान देने के साथ जीवन भर व्यक्तिगत और पारस्परिक कामकाज की सुविधा प्रदान करती है।</t>
+  </si>
+  <si>
+    <t>वे तंत्रिका तंत्र के मूल ऊतक और तत्व हैं</t>
+  </si>
+  <si>
+    <t>संज्ञानात्मक विज्ञान संज्ञानात्मक मनोविज्ञान से बहुत निकटता से संबंधित है, लेकिन उपयोग की जाने वाली कुछ शोध विधियों में भिन्न है, और व्यवहार और तंत्रिका प्रसंस्करण दोनों के संदर्भ में मानसिक घटनाओं को समझाने पर थोड़ा अधिक जोर दिया गया है।</t>
   </si>
   <si>
     <t>कंप्यूटर प्रौद्योगिकी के उदय ने सूचना प्रसंस्करण के रूप में मानसिक कार्य के रूपक को भी बढ़ावा दिया।</t>
   </si>
   <si>
-    <t> भाषण गुब्बारे संवाद (या विचार, विचार गुब्बारे के मामले में) को इंगित करते हैं, जिसमें पूंछ उनके संबंधित वक्ताओं की ओर इशारा करती है।</t>
-  </si>
-  <si>
-    <t> फ़ोटोग्राफ़ी ने दृश्य घटनाओं को सटीक रूप से प्रस्तुत करने की एक विधि के रूप में ड्राइंग के विकल्प की पेशकश की, और पारंपरिक ड्राइंग अभ्यास को कलाकारों के लिए एक आवश्यक कौशल के रूप में कम जोर दिया गया, खासकर पश्चिमी समाज में।</t>
-  </si>
-  <si>
-    <t> तब से, रंगीन फोटोग्राफी लोकप्रिय फोटोग्राफी पर हावी हो गई है, हालांकि काले और सफेद रंग का उपयोग अभी भी किया जाता है, रंग की तुलना में इसे विकसित करना आसान है।</t>
-  </si>
-  <si>
-    <t> मुसलमानों में तस्वीरों से सजी हुई जगह पर नमाज़ (पूजा) करना मकरूह (नापसंद) है।</t>
-  </si>
-  <si>
-    <t> जब किसी इमारत के अग्र भाग और भुजाएँ दोनों खींची जाती हैं, तो भुजा बनाने वाली समानांतर रेखाएँ क्षितिज के साथ एक दूसरे बिंदु पर एकत्रित होती हैं (जो ड्राइंग पेपर से दूर हो सकती है।)</t>
-  </si>
-  <si>
-    <t> तकनीकी भूगोल सबसे हाल ही में मान्यता प्राप्त शाखाओं में से एक है।</t>
+    <t>भाषण गुब्बारे संवाद (या विचार, विचार गुब्बारे के मामले में) को इंगित करते हैं, जिसमें पूंछ उनके संबंधित वक्ताओं की ओर इशारा करती है।</t>
+  </si>
+  <si>
+    <t>फ़ोटोग्राफ़ी ने दृश्य घटनाओं को सटीक रूप से प्रस्तुत करने की एक विधि के रूप में ड्राइंग के विकल्प की पेशकश की, और पारंपरिक ड्राइंग अभ्यास को कलाकारों के लिए एक आवश्यक कौशल के रूप में कम जोर दिया गया, खासकर पश्चिमी समाज में।</t>
+  </si>
+  <si>
+    <t>तब से, रंगीन फोटोग्राफी लोकप्रिय फोटोग्राफी पर हावी हो गई है, हालांकि काले और सफेद रंग का उपयोग अभी भी किया जाता है, रंग की तुलना में इसे विकसित करना आसान है।</t>
+  </si>
+  <si>
+    <t>मुसलमानों में तस्वीरों से सजी हुई जगह पर नमाज़ (पूजा) करना मकरूह (नापसंद) है।</t>
+  </si>
+  <si>
+    <t>जब किसी इमारत के अग्र भाग और भुजाएँ दोनों खींची जाती हैं, तो भुजा बनाने वाली समानांतर रेखाएँ क्षितिज के साथ एक दूसरे बिंदु पर एकत्रित होती हैं (जो ड्राइंग पेपर से दूर हो सकती है।)</t>
+  </si>
+  <si>
+    <t>तकनीकी भूगोल सबसे हाल ही में मान्यता प्राप्त शाखाओं में से एक है।</t>
   </si>
   <si>
     <t>नई सहस्राब्दी के शुरुआती वर्षों में, तीन प्रमुख तकनीकी प्रगति ने कार्टोग्राफी को बदल दिया: मई 2000 में ग्लोबल पोजिशनिंग सिस्टम (जीपीएस) में चयनात्मक उपलब्धता को हटाना, जिसने उपभोक्ता-ग्रेड जीपीएस रिसीवर के लिए कुछ मीटर के भीतर स्थानिक सटीकता में सुधार किया; 2004 में OpenStreetMap का आविष्कार, एक वैश्विक डिजिटल काउंटर-मैप जिसने किसी को भी जटिल लाइसेंसिंग समझौतों के बिना नए स्थानिक डेटा में योगदान करने और उपयोग करने की अनुमति दी; और 2005 में वर्चुअल ग्लोब अर्थव्यूअर 3डी (2004) के विकास के रूप में Google Earth का प्रक्षेपण, जिसने उपग्रह और हवाई इमेजरी तक पहुंच में क्रांति ला दी।</t>
   </si>
   <si>
-    <t> इंटरनेट और वेब मैपिंग के उद्भव के साथ, उचित कार्टोग्राफिक प्रशिक्षण के बिना लोगों द्वारा मानचित्रों के निर्माण और वितरण की प्रौद्योगिकियां आसानी से उपलब्ध हैं।</t>
-  </si>
-  <si>
-    <t> मानचित्र छवि को संबंधित तत्वों, जैसे शीर्षक, किंवदंती, अतिरिक्त मानचित्र, पाठ, चित्र इत्यादि के साथ पृष्ठ (चाहे कागज, वेब, या अन्य मीडिया) पर रखा जाना चाहिए।</t>
+    <t>इंटरनेट और वेब मैपिंग के उद्भव के साथ, उचित कार्टोग्राफिक प्रशिक्षण के बिना लोगों द्वारा मानचित्रों के निर्माण और वितरण की प्रौद्योगिकियां आसानी से उपलब्ध हैं।</t>
+  </si>
+  <si>
+    <t>मानचित्र छवि को संबंधित तत्वों, जैसे शीर्षक, किंवदंती, अतिरिक्त मानचित्र, पाठ, चित्र इत्यादि के साथ पृष्ठ (चाहे कागज, वेब, या अन्य मीडिया) पर रखा जाना चाहिए।</t>
   </si>
   <si>
     <t>2008 में, बायोग्राफी के लिए क्षेत्र नामकरण का एक अंतर्राष्ट्रीय कोड प्रस्तावित किया गया था।</t>
   </si>
   <si>
-    <t> बताया गया है कि भारी धूम्रपान करने वाले समान आहार लेने वाले गैर-धूम्रपान करने वालों की तुलना में प्रति दिन 200 कैलोरी अधिक जलाते हैं।</t>
-  </si>
-  <si>
-    <t> दुनिया भर में बाल चिकित्सा की आयु सीमा साल दर साल बढ़ती जा रही है।</t>
-  </si>
-  <si>
-    <t> यह उन परिस्थितियों में बढ़ जाता है जहां किसी की संक्रमण के प्रति प्रतिरोधक क्षमता कम हो गई हो।</t>
-  </si>
-  <si>
-    <t> यह संग्रहीत ऊर्जा भंडार का उपयोग तब तक करेगा जब तक कि वे समाप्त न हो जाएं, और फिर यह अतिरिक्त ऊर्जा के लिए अपने स्वयं के शरीर के द्रव्यमान को तोड़ देगा।</t>
-  </si>
-  <si>
-    <t> स्वच्छता उपायों में तेल खींचना और जीभ खुजलाना शामिल है।</t>
-  </si>
-  <si>
-    <t> किन राजवंश (221-207 ईसा पूर्व) के पहले सम्राट, किन शी हुआंग को दक्षिणी चीन को नौसैनिक शक्ति के रूप में एकजुट करने में काफी सफलता मिली, हालांकि एक आधिकारिक नौसेना अभी तक स्थापित नहीं हुई थी (नीचे मध्यकालीन एशिया अनुभाग देखें)।</t>
-  </si>
-  <si>
-    <t> अन्य दृश्यों में, पुरुष सिर पर पोशाक और घुटनों के आभूषण पहनते हैं लेकिन अन्यथा नग्न होकर लड़ते हैं।</t>
+    <t>बताया गया है कि भारी धूम्रपान करने वाले समान आहार लेने वाले गैर-धूम्रपान करने वालों की तुलना में प्रति दिन 200 कैलोरी अधिक जलाते हैं।</t>
+  </si>
+  <si>
+    <t>दुनिया भर में बाल चिकित्सा की आयु सीमा साल दर साल बढ़ती जा रही है।</t>
+  </si>
+  <si>
+    <t>यह उन परिस्थितियों में बढ़ जाता है जहां किसी की संक्रमण के प्रति प्रतिरोधक क्षमता कम हो गई हो।</t>
+  </si>
+  <si>
+    <t>यह संग्रहीत ऊर्जा भंडार का उपयोग तब तक करेगा जब तक कि वे समाप्त न हो जाएं, और फिर यह अतिरिक्त ऊर्जा के लिए अपने स्वयं के शरीर के द्रव्यमान को तोड़ देगा।</t>
+  </si>
+  <si>
+    <t>स्वच्छता उपायों में तेल खींचना और जीभ खुजलाना शामिल है।</t>
+  </si>
+  <si>
+    <t>किन राजवंश (221-207 ईसा पूर्व) के पहले सम्राट, किन शी हुआंग को दक्षिणी चीन को नौसैनिक शक्ति के रूप में एकजुट करने में काफी सफलता मिली, हालांकि एक आधिकारिक नौसेना अभी तक स्थापित नहीं हुई थी (नीचे मध्यकालीन एशिया अनुभाग देखें)।</t>
+  </si>
+  <si>
+    <t>अन्य दृश्यों में, पुरुष सिर पर पोशाक और घुटनों के आभूषण पहनते हैं लेकिन अन्यथा नग्न होकर लड़ते हैं।</t>
   </si>
   <si>
     <t>पौधों की कटाई और प्रसंस्करण की बढ़ती आवश्यकता के कारण, जमीनी पत्थर और पॉलिश किए गए पत्थर की कलाकृतियाँ अधिक व्यापक हो गईं, जिनमें पीसने, काटने और काटने के उपकरण भी शामिल थे।</t>
   </si>
   <si>
-    <t> उन्होंने चीन, फारस, तुर्किस्तान और रूस पर कब्ज़ा कर लिया।</t>
-  </si>
-  <si>
-    <t> 653 ईसा पूर्व तक, सैइट राजा सैम्टिक प्रथम ग्रीक भाड़े के सैनिकों की मदद से अश्शूरियों को बाहर करने में सक्षम था, जिन्हें मिस्र की पहली नौसेना बनाने के लिए भर्ती किया गया था।</t>
-  </si>
-  <si>
-    <t> वे अनुक्रम जो अनंत की ओर प्रवृत्त नहीं होते, परिबद्ध कहलाते हैं।</t>
-  </si>
-  <si>
-    <t> एक समान सीमा में बिंदुवार सीमा की तुलना में "अच्छे" गुण होते हैं।</t>
-  </si>
-  <si>
-    <t> स्टोकेस्टिक आंशिक अंतर समीकरण (एसपीडीई) एक समीकरण है जो क्वांटम क्षेत्र सिद्धांत और सांख्यिकीय यांत्रिकी में अनुप्रयोगों के साथ अंतरिक्ष-समय शोर प्रक्रियाओं को शामिल करने के लिए एसडीई को सामान्यीकृत करता है।</t>
-  </si>
-  <si>
-    <t> इसे पूर्ण अभिसरण के समतुल्य सिद्ध किया जा सकता है।</t>
-  </si>
-  <si>
-    <t> बिग ओ नोटेशन: किसी फ़ंक्शन के सीमित व्यवहार का वर्णन करने के लिए उपयोग किया जाता है जब तर्क किसी विशेष मूल्य या अनंत की ओर जाता है</t>
+    <t>उन्होंने चीन, फारस, तुर्किस्तान और रूस पर कब्ज़ा कर लिया।</t>
+  </si>
+  <si>
+    <t>653 ईसा पूर्व तक, सैइट राजा सैम्टिक प्रथम ग्रीक भाड़े के सैनिकों की मदद से अश्शूरियों को बाहर करने में सक्षम था, जिन्हें मिस्र की पहली नौसेना बनाने के लिए भर्ती किया गया था।</t>
+  </si>
+  <si>
+    <t>वे अनुक्रम जो अनंत की ओर प्रवृत्त नहीं होते, परिबद्ध कहलाते हैं।</t>
+  </si>
+  <si>
+    <t>एक समान सीमा में बिंदुवार सीमा की तुलना में "अच्छे" गुण होते हैं।</t>
+  </si>
+  <si>
+    <t>स्टोकेस्टिक आंशिक अंतर समीकरण (एसपीडीई) एक समीकरण है जो क्वांटम क्षेत्र सिद्धांत और सांख्यिकीय यांत्रिकी में अनुप्रयोगों के साथ अंतरिक्ष-समय शोर प्रक्रियाओं को शामिल करने के लिए एसडीई को सामान्यीकृत करता है।</t>
+  </si>
+  <si>
+    <t>इसे पूर्ण अभिसरण के समतुल्य सिद्ध किया जा सकता है।</t>
+  </si>
+  <si>
+    <t>बिग ओ नोटेशन: किसी फ़ंक्शन के सीमित व्यवहार का वर्णन करने के लिए उपयोग किया जाता है जब तर्क किसी विशेष मूल्य या अनंत की ओर जाता है</t>
   </si>
   <si>
     <t>माप का उपयोग अलग-अलग लोगों द्वारा अलग-अलग समय और स्थानों पर किए गए अवलोकनों की रिकॉर्डिंग और तुलना की अनुमति देने के लिए विकसित किया गया था।</t>
   </si>
   <si>
-    <t> यूकेरियोटिक कोशिकाओं में साइटोस्केलेटन भी होता है जो सूक्ष्मनलिकाएं, मध्यवर्ती फिलामेंट्स और माइक्रोफिलामेंट्स से बना होता है, जो सभी कोशिका को सहायता प्रदान करते हैं और कोशिका और उसके अंगों की गति में शामिल होते हैं।</t>
-  </si>
-  <si>
-    <t> इस प्रकार दो लोग एक ही घटना को देख सकते हैं और इसके बारे में पूरी तरह से अलग-अलग धारणाएं बना सकते हैं, यहां तक कि साधारण तथ्यों के बारे में भी असहमत हो सकते हैं।</t>
-  </si>
-  <si>
-    <t> कुछ जानवर अलैंगिक प्रजनन में सक्षम होते हैं, जिसके परिणामस्वरूप अक्सर माता-पिता का आनुवंशिक क्लोन बन जाता है।</t>
-  </si>
-  <si>
-    <t> हालाँकि, इन उन्नत तरीकों का उपयोग करने पर भी, जीवाणु प्रजातियों की कुल संख्या ज्ञात नहीं है और किसी निश्चितता के साथ इसका अनुमान भी नहीं लगाया जा सकता है।</t>
-  </si>
-  <si>
-    <t> हुक ने यह भी कहा कि मानवतावादी भूख मिटाने और स्वास्थ्य, आवास और शिक्षा में सुधार का समर्थन करते हैं।</t>
+    <t>यूकेरियोटिक कोशिकाओं में साइटोस्केलेटन भी होता है जो सूक्ष्मनलिकाएं, मध्यवर्ती फिलामेंट्स और माइक्रोफिलामेंट्स से बना होता है, जो सभी कोशिका को सहायता प्रदान करते हैं और कोशिका और उसके अंगों की गति में शामिल होते हैं।</t>
+  </si>
+  <si>
+    <t>इस प्रकार दो लोग एक ही घटना को देख सकते हैं और इसके बारे में पूरी तरह से अलग-अलग धारणाएं बना सकते हैं, यहां तक कि साधारण तथ्यों के बारे में भी असहमत हो सकते हैं।</t>
+  </si>
+  <si>
+    <t>कुछ जानवर अलैंगिक प्रजनन में सक्षम होते हैं, जिसके परिणामस्वरूप अक्सर माता-पिता का आनुवंशिक क्लोन बन जाता है।</t>
+  </si>
+  <si>
+    <t>हालाँकि, इन उन्नत तरीकों का उपयोग करने पर भी, जीवाणु प्रजातियों की कुल संख्या ज्ञात नहीं है और किसी निश्चितता के साथ इसका अनुमान भी नहीं लगाया जा सकता है।</t>
+  </si>
+  <si>
+    <t>हुक ने यह भी कहा कि मानवतावादी भूख मिटाने और स्वास्थ्य, आवास और शिक्षा में सुधार का समर्थन करते हैं।</t>
   </si>
   <si>
     <t>यह दृष्टिकोण सुधारवादी और लेनिनवादी साम्यवादी दोनों विचारधाराओं का विरोध करता है, जो क्रमशः एक ओर सामाजिक सुधारों को लागू करके संसदीय और संस्थागत सरकार पर जोर देते हैं, और दूसरी ओर मोहरा पार्टियों और सहभागी लोकतांत्रिक केंद्रवाद पर जोर देते हैं।</t>
   </si>
   <si>
-    <t> फासीवाद जानबूझकर और पूरी तरह से गैर-लोकतांत्रिक और अलोकतांत्रिक है।</t>
-  </si>
-  <si>
-    <t> मिस्र, भारतीय, मेसोपोटामिया, सूडानी, पुनर्निर्मित प्रोटो-इंडो-यूरोपीय धर्म और अन्य के साथ, राजा पवित्र कार्यों को सीधे बलिदान से जुड़ा हुआ मानते थे और कभी-कभी उन्हें दैवीय वंश के रूप में पहचाना जाता था, जिससे संभवतः राजाओं के दैवीय अधिकार की धारणा स्थापित होती थी।</t>
-  </si>
-  <si>
-    <t> उच्च अनुमानों की आलोचना यह कहकर की जाती है कि वे विरल और अपूर्ण डेटा पर आधारित होते हैं जब महत्वपूर्ण त्रुटियाँ अपरिहार्य होती हैं, उच्च संभावित मूल्यों पर आधारित होती हैं, और गृह युद्धों, होलोडोमोर और अन्य अकालों और युद्ध से संबंधित घटनाओं के पीड़ितों को शामिल नहीं किया जाना चाहिए।</t>
+    <t>फासीवाद जानबूझकर और पूरी तरह से गैर-लोकतांत्रिक और अलोकतांत्रिक है।</t>
+  </si>
+  <si>
+    <t>मिस्र, भारतीय, मेसोपोटामिया, सूडानी, पुनर्निर्मित प्रोटो-इंडो-यूरोपीय धर्म और अन्य के साथ, राजा पवित्र कार्यों को सीधे बलिदान से जुड़ा हुआ मानते थे और कभी-कभी उन्हें दैवीय वंश के रूप में पहचाना जाता था, जिससे संभवतः राजाओं के दैवीय अधिकार की धारणा स्थापित होती थी।</t>
+  </si>
+  <si>
+    <t>उच्च अनुमानों की आलोचना यह कहकर की जाती है कि वे विरल और अपूर्ण डेटा पर आधारित होते हैं जब महत्वपूर्ण त्रुटियाँ अपरिहार्य होती हैं, उच्च संभावित मूल्यों पर आधारित होती हैं, और गृह युद्धों, होलोडोमोर और अन्य अकालों और युद्ध से संबंधित घटनाओं के पीड़ितों को शामिल नहीं किया जाना चाहिए।</t>
   </si>
   <si>
     <t>ज्ञान संगठन: मस्तिष्क में ज्ञान कैसे व्यवस्थित होता है, इसकी संज्ञानात्मक मनोविज्ञान की समझ का अनुप्रयोग हाल के वर्षों में शिक्षा के क्षेत्र में एक प्रमुख फोकस रहा है।</t>
   </si>
   <si>
-    <t> सिमेंटिक मेमोरी की पहुंच थोड़े से लेकर बेहद प्रयास तक होती है, जो कई चर पर निर्भर करती है, जिसमें जानकारी की एन्कोडिंग की पुनरावृत्ति, अन्य जानकारी के साथ इसके जुड़ाव की संख्या, पहुंच की आवृत्ति और अर्थ के स्तर (कितनी गहराई तक) शामिल हैं, लेकिन इन्हीं तक सीमित नहीं हैं। जब इसे एन्कोड किया गया था तब इसे संसाधित किया गया था)।</t>
-  </si>
-  <si>
-    <t> यह परिप्रेक्ष्य कॉम्टे के मूल समाजशास्त्रीय प्रत्यक्षवाद में निहित था, लेकिन दुर्खीम द्वारा फिर से अवलोकनीय, संरचनात्मक कानूनों के संबंध में पूर्ण रूप से सिद्धांतित किया गया था।</t>
-  </si>
-  <si>
-    <t> यह दृष्टिकोण मुख्य रूप से माइकल बुरावॉय से जुड़ा है जिन्होंने इसकी तुलना पेशेवर समाजशास्त्र से की, अकादमिक समाजशास्त्र का एक रूप जो मुख्य रूप से अन्य पेशेवर समाजशास्त्रियों को संबोधित करने से संबंधित है।</t>
+    <t>सिमेंटिक मेमोरी की पहुंच थोड़े से लेकर बेहद प्रयास तक होती है, जो कई चर पर निर्भर करती है, जिसमें जानकारी की एन्कोडिंग की पुनरावृत्ति, अन्य जानकारी के साथ इसके जुड़ाव की संख्या, पहुंच की आवृत्ति और अर्थ के स्तर (कितनी गहराई तक) शामिल हैं, लेकिन इन्हीं तक सीमित नहीं हैं। जब इसे एन्कोड किया गया था तब इसे संसाधित किया गया था)।</t>
+  </si>
+  <si>
+    <t>यह परिप्रेक्ष्य कॉम्टे के मूल समाजशास्त्रीय प्रत्यक्षवाद में निहित था, लेकिन दुर्खीम द्वारा फिर से अवलोकनीय, संरचनात्मक कानूनों के संबंध में पूर्ण रूप से सिद्धांतित किया गया था।</t>
+  </si>
+  <si>
+    <t>यह दृष्टिकोण मुख्य रूप से माइकल बुरावॉय से जुड़ा है जिन्होंने इसकी तुलना पेशेवर समाजशास्त्र से की, अकादमिक समाजशास्त्र का एक रूप जो मुख्य रूप से अन्य पेशेवर समाजशास्त्रियों को संबोधित करने से संबंधित है।</t>
   </si>
   <si>
     <t>संचार और सूचना प्रौद्योगिकियों के समाजशास्त्र में "कंप्यूटिंग, इंटरनेट, नए मीडिया, कंप्यूटर नेटवर्क और अन्य संचार और सूचना प्रौद्योगिकियों के सामाजिक पहलू शामिल हैं।"</t>
   </si>
   <si>
-    <t> कौन सा तत्व आवश्यक है यह निर्दिष्ट करने के लिए तत्वों को एक पूर्णांक सूचकांक का उपयोग करके एक्सेस किया जाता है।</t>
-  </si>
-  <si>
-    <t> यह कोड रीफैक्टरिंग की सुविधा प्रदान करता है, उदाहरण के लिए क्लास के लेखक को यह बदलने की इजाजत देता है कि उस क्लास की वस्तुएं किसी बाहरी कोड को बदले बिना आंतरिक रूप से अपने डेटा का प्रतिनिधित्व कैसे करती हैं (जब तक "सार्वजनिक" विधि कॉल उसी तरह काम करती हैं)।</t>
-  </si>
-  <si>
-    <t> ब्लैकआउट तब होता है जब आपूर्ति पूरी तरह से विफल हो जाती है।</t>
-  </si>
-  <si>
-    <t> सिस्टम रिसीवर छोर पर 1 किलोवाट तक बिजली का उत्पादन करता है।</t>
-  </si>
-  <si>
-    <t> यूके में, ट्रांसमिशन लागत लगभग 0.2 पी प्रति किलोवाट है, जबकि घरेलू कीमत लगभग 10 पी प्रति किलोवाट है। अनुसंधान का मूल्यांकन है कि विद्युत ऊर्जा टी एंड डी उपकरण बाजार में पूंजीगत व्यय का स्तर 2011 में 128.9 अरब डॉलर होगा।</t>
+    <t>कौन सा तत्व आवश्यक है यह निर्दिष्ट करने के लिए तत्वों को एक पूर्णांक सूचकांक का उपयोग करके एक्सेस किया जाता है।</t>
+  </si>
+  <si>
+    <t>यह कोड रीफैक्टरिंग की सुविधा प्रदान करता है, उदाहरण के लिए क्लास के लेखक को यह बदलने की इजाजत देता है कि उस क्लास की वस्तुएं किसी बाहरी कोड को बदले बिना आंतरिक रूप से अपने डेटा का प्रतिनिधित्व कैसे करती हैं (जब तक "सार्वजनिक" विधि कॉल उसी तरह काम करती हैं)।</t>
+  </si>
+  <si>
+    <t>ब्लैकआउट तब होता है जब आपूर्ति पूरी तरह से विफल हो जाती है।</t>
+  </si>
+  <si>
+    <t>सिस्टम रिसीवर छोर पर 1 किलोवाट तक बिजली का उत्पादन करता है।</t>
+  </si>
+  <si>
+    <t>यूके में, ट्रांसमिशन लागत लगभग 0.2 पी प्रति किलोवाट है, जबकि घरेलू कीमत लगभग 10 पी प्रति किलोवाट है। अनुसंधान का मूल्यांकन है कि विद्युत ऊर्जा टी एंड डी उपकरण बाजार में पूंजीगत व्यय का स्तर 2011 में 128.9 अरब डॉलर होगा।</t>
   </si>
   <si>
     <t>'तुम अपनी सभी संभावनाओं को बर्बाद कर रहे हो,' दोस्त ने उदास होकर कहा, 'और जो चेहरा तुम देख रहे हो वह बलिदान के लायक नहीं है।'</t>
   </si>
   <si>
-    <t> उनकी सलाह फिर तब ली गई जब यह तय करना जरूरी था कि वेल्स के युवा राजकुमार को किस योजना के तहत शिक्षित किया जाना चाहिए।</t>
-  </si>
-  <si>
-    <t> राजकुमारी विक्टॉयर मैरी लुईस ड्यूक ऑफ सक्से-कोबर्ग की सबसे छोटी बेटी और लीनिंगन के राजकुमार चार्ल्स की विधवा थीं, जिन्होंने अपनी मृत्यु के बाद उन्हें अपनी रियासत की शासक के रूप में छोड़ दिया था।</t>
-  </si>
-  <si>
-    <t> इतिहास में बहुत कम शासनकाल उनके जैसा निर्दोष रहा है, और उनका घरेलू जीवन अपने सामंजस्य और एक-दूसरे के प्रति अपने परिवार के सदस्यों की भक्ति में परिपूर्ण था।</t>
+    <t>उनकी सलाह फिर तब ली गई जब यह तय करना जरूरी था कि वेल्स के युवा राजकुमार को किस योजना के तहत शिक्षित किया जाना चाहिए।</t>
+  </si>
+  <si>
+    <t>राजकुमारी विक्टॉयर मैरी लुईस ड्यूक ऑफ सक्से-कोबर्ग की सबसे छोटी बेटी और लीनिंगन के राजकुमार चार्ल्स की विधवा थीं, जिन्होंने अपनी मृत्यु के बाद उन्हें अपनी रियासत की शासक के रूप में छोड़ दिया था।</t>
+  </si>
+  <si>
+    <t>इतिहास में बहुत कम शासनकाल उनके जैसा निर्दोष रहा है, और उनका घरेलू जीवन अपने सामंजस्य और एक-दूसरे के प्रति अपने परिवार के सदस्यों की भक्ति में परिपूर्ण था।</t>
   </si>
   <si>
     <t>पानी पर सुनहरी रोशनी, मोती-भूरे और रंगे हुए पत्थर, गैली के समलैंगिक पाल जो चित्रित तितलियों की तरह लैगून में बहते थे, दूर के क्षितिज के रहस्य में समाप्त होने वाला पानी का विस्तृत विस्तार - यह सब उनके दिलों में उतर गया , और यह कोई आश्चर्य की बात नहीं थी कि वे सभी चीजों से ऊपर रंग को चित्रित करने का प्रयास करें, और अंततः उस पूर्णता तक पहुंचें, जिसकी तुलना चित्रकारों के किसी अन्य स्कूल ने नहीं की है।</t>
   </si>
   <si>
-    <t> मैंने दुनिया के सभी हिस्सों में थोड़ी-थोड़ी उड़ान भरी है; और यह सच है कि भूगोल मेरे लिए बहुत उपयोगी रहा है।</t>
-  </si>
-  <si>
-    <t> छठा ग्रह पिछले ग्रह से दस गुना बड़ा था।</t>
-  </si>
-  <si>
-    <t> और मैंने इसके साथ एक स्पष्टीकरण भी दिया।</t>
-  </si>
-  <si>
-    <t> जब कोई बुद्धि से खेलना चाहता है, तो वह कभी-कभी सच्चाई से थोड़ा भटक जाता है।</t>
-  </si>
-  <si>
-    <t> इस क्षुद्रग्रह को दूरबीन से केवल एक बार देखा गया है।</t>
+    <t>मैंने दुनिया के सभी हिस्सों में थोड़ी-थोड़ी उड़ान भरी है; और यह सच है कि भूगोल मेरे लिए बहुत उपयोगी रहा है।</t>
+  </si>
+  <si>
+    <t>छठा ग्रह पिछले ग्रह से दस गुना बड़ा था।</t>
+  </si>
+  <si>
+    <t>और मैंने इसके साथ एक स्पष्टीकरण भी दिया।</t>
+  </si>
+  <si>
+    <t>जब कोई बुद्धि से खेलना चाहता है, तो वह कभी-कभी सच्चाई से थोड़ा भटक जाता है।</t>
+  </si>
+  <si>
+    <t>इस क्षुद्रग्रह को दूरबीन से केवल एक बार देखा गया है।</t>
   </si>
   <si>
     <t>प्रश्न का परीक्षण बाह्य और आंतरिक साक्ष्य द्वारा किया जाना है; हमारी जाति की भाषा और भौतिक प्रकार इसे आज़माने के लिए कुछ डेटा प्रदान करते हैं, और अन्य डेटा आम तौर पर हमारे साहित्य, प्रतिभा और आध्यात्मिक उत्पादन द्वारा प्रदान किए जाते हैं।</t>
   </si>
   <si>
-    <t> और सेरेस, आर्क की प्रतिभा, निश्चित रूप से सेरिडवेन में पाई जाती है, 'ब्रिटिश सेरेस, आर्काइट देवी जो हमें आर्काइट अंधविश्वास के सबसे गहरे रहस्यों से परिचित कराती है।'</t>
-  </si>
-  <si>
-    <t> और फिर, इसके अलावा, सेल्टिक प्रतिभा के बारे में हमारे ज्ञान के लिए, श्री नॉरिस ने हमें कॉर्नवाल से, एम. डे ला विलेमार्के को ब्रिटनी से, योगदान, वास्तव में मात्रा में नगण्य, अगर कोई उनकी तुलना मौजूदा आयरिश सामग्रियों के द्रव्यमान से करता है, लाये हैं। लेकिन मूल्य में महत्वहीन से बहुत दूर।</t>
-  </si>
-  <si>
-    <t> ''फिर एक चर्च मिला,'' संत ने कहा, ''वह न तो हमारे बहुत करीब होगा'' (अर्थात् अर्माघ का उसका अपना चर्च) ''परिचित होने के लिए, न ही संभोग के लिए हमसे बहुत दूर।''</t>
+    <t>और सेरेस, आर्क की प्रतिभा, निश्चित रूप से सेरिडवेन में पाई जाती है, 'ब्रिटिश सेरेस, आर्काइट देवी जो हमें आर्काइट अंधविश्वास के सबसे गहरे रहस्यों से परिचित कराती है।'</t>
+  </si>
+  <si>
+    <t>और फिर, इसके अलावा, सेल्टिक प्रतिभा के बारे में हमारे ज्ञान के लिए, श्री नॉरिस ने हमें कॉर्नवाल से, एम. डे ला विलेमार्के को ब्रिटनी से, योगदान, वास्तव में मात्रा में नगण्य, अगर कोई उनकी तुलना मौजूदा आयरिश सामग्रियों के द्रव्यमान से करता है, लाये हैं। लेकिन मूल्य में महत्वहीन से बहुत दूर।</t>
+  </si>
+  <si>
+    <t>''फिर एक चर्च मिला,'' संत ने कहा, ''वह न तो हमारे बहुत करीब होगा'' (अर्थात् अर्माघ का उसका अपना चर्च) ''परिचित होने के लिए, न ही संभोग के लिए हमसे बहुत दूर।''</t>
   </si>
   <si>
     <t>और पेरेदुर ने खड़े होकर कौए के कालेपन, और बर्फ की सफेदी, और खून की लाली की तुलना उस महिला के बालों से की, जिसे वह सबसे अधिक प्यार करता था, जो कौवे से भी अधिक काला था, और उसकी त्वचा से, जो कि बर्फ से भी अधिक सफेद, और उसके दोनों गाल, जो बर्फ पर लगे खून से भी ज्यादा लाल थे।'</t>
   </si>
   <si>
-    <t> ये दो साल पहले वाले और बाद वाले साल के बीच में दो पहाड़ों की तरह उगते हैं।</t>
-  </si>
-  <si>
-    <t> इनमें से किसी भी युवा ने यह शब्द स्पष्ट नहीं किया: सम्राट।</t>
-  </si>
-  <si>
-    <t> “यह बहुत भाग्यशाली है,” बूढ़े व्यक्ति ने निंदा भरे स्वर में कहा।</t>
-  </si>
-  <si>
-    <t> अंत में, हम देखेंगे कि इस सब में ऐसा कुछ भी नहीं था जो अत्यधिक गंभीर न हो।</t>
-  </si>
-  <si>
-    <t> एक ऐसी कुटिया जिसमें नियति मनुष्य को तब डाल देती है, जब भी वह किसी दुष्ट या देवता की इच्छा करती है।</t>
-  </si>
-  <si>
-    <t> कृपया मुझे दा विंची कोड की अनुशंसा न करें क्योंकि आपको लगता है कि यह शानदार है।</t>
-  </si>
-  <si>
-    <t> इस श्रृंखला की अत्यधिक अनुशंसा करें!</t>
-  </si>
-  <si>
-    <t> पात्र अनुपयुक्त हैं और कहानी बेहद धीमी है...कुछ भी मुझे पढ़ने को जारी रखने के लिए बाध्य नहीं कर रहा है।</t>
+    <t>ये दो साल पहले वाले और बाद वाले साल के बीच में दो पहाड़ों की तरह उगते हैं।</t>
+  </si>
+  <si>
+    <t>इनमें से किसी भी युवा ने यह शब्द स्पष्ट नहीं किया: सम्राट।</t>
+  </si>
+  <si>
+    <t>“यह बहुत भाग्यशाली है,” बूढ़े व्यक्ति ने निंदा भरे स्वर में कहा।</t>
+  </si>
+  <si>
+    <t>अंत में, हम देखेंगे कि इस सब में ऐसा कुछ भी नहीं था जो अत्यधिक गंभीर न हो।</t>
+  </si>
+  <si>
+    <t>एक ऐसी कुटिया जिसमें नियति मनुष्य को तब डाल देती है, जब भी वह किसी दुष्ट या देवता की इच्छा करती है।</t>
+  </si>
+  <si>
+    <t>कृपया मुझे दा विंची कोड की अनुशंसा न करें क्योंकि आपको लगता है कि यह शानदार है।</t>
+  </si>
+  <si>
+    <t>इस श्रृंखला की अत्यधिक अनुशंसा करें!</t>
+  </si>
+  <si>
+    <t>पात्र अनुपयुक्त हैं और कहानी बेहद धीमी है...कुछ भी मुझे पढ़ने को जारी रखने के लिए बाध्य नहीं कर रहा है।</t>
   </si>
   <si>
     <t>उस शाम फर्नली पार्क के एक्रोयड के घर में रात्रि भोज में, उनके मेहमानों में उनकी भाभी श्रीमती सेसिल एक्रोयड और उनकी बेटी फ्लोरा, बड़े खेल के शिकारी मेजर ब्लंट, एक्रोयड के निजी सचिव जेफ्री रेमंड और डॉ. जेम्स शेपर्ड शामिल थे, जिन्हें एक्रोयड ने पहले आमंत्रित किया था। उस दिन।</t>
   </si>
   <si>
-    <t> हम देखते हैं कि कब्ज़े का विरोध करने वाले लोग विरोध करने के तरीके को लेकर एक-दूसरे से असहमत हैं।</t>
-  </si>
-  <si>
-    <t> उन्होंने आकस्मिक खर्चों और हमारे ठहरने के लिए पूरे कमरे के शुल्क पर हमारे खाते पर रोक लगा दी, भले ही कमरे के लिए पहले ही भुगतान कर दिया गया था।</t>
-  </si>
-  <si>
-    <t> कई रेस्तरां में खाना खाया और तरह-तरह के व्यंजनों का आनंद लिया।</t>
-  </si>
-  <si>
-    <t> वास्तव में अद्भुत स्टाफ़।</t>
-  </si>
-  <si>
-    <t> नाश्ते के दौरान बहुत मिलनसार कर्मचारी। अंतरराज्यीय के बहुत करीब, केसी रॉयल्स स्टेडियम से केवल कुछ मील की दूरी पर।</t>
-  </si>
-  <si>
-    <t> इसने सेवा, मूल्य और स्थान के मामले में हमारी सभी अपेक्षाओं को पार कर लिया।</t>
-  </si>
-  <si>
-    <t> मूल पटकथा फ्लैशबैक और शानदार पंक्तियों का उपयोग करके स्थिति और पात्रों को सटीक रूप से विकसित करती है।</t>
+    <t>हम देखते हैं कि कब्ज़े का विरोध करने वाले लोग विरोध करने के तरीके को लेकर एक-दूसरे से असहमत हैं।</t>
+  </si>
+  <si>
+    <t>उन्होंने आकस्मिक खर्चों और हमारे ठहरने के लिए पूरे कमरे के शुल्क पर हमारे खाते पर रोक लगा दी, भले ही कमरे के लिए पहले ही भुगतान कर दिया गया था।</t>
+  </si>
+  <si>
+    <t>कई रेस्तरां में खाना खाया और तरह-तरह के व्यंजनों का आनंद लिया।</t>
+  </si>
+  <si>
+    <t>वास्तव में अद्भुत स्टाफ़।</t>
+  </si>
+  <si>
+    <t>नाश्ते के दौरान बहुत मिलनसार कर्मचारी। अंतरराज्यीय के बहुत करीब, केसी रॉयल्स स्टेडियम से केवल कुछ मील की दूरी पर।</t>
+  </si>
+  <si>
+    <t>इसने सेवा, मूल्य और स्थान के मामले में हमारी सभी अपेक्षाओं को पार कर लिया।</t>
+  </si>
+  <si>
+    <t>मूल पटकथा फ्लैशबैक और शानदार पंक्तियों का उपयोग करके स्थिति और पात्रों को सटीक रूप से विकसित करती है।</t>
   </si>
   <si>
     <t>और फिर अच्छे उपाय के लिए कुछ और खींचता है। इसका शीर्षक और फ्रेंकी गोज़ टू हॉलीवुड द्वारा "वेलकम टू द प्लेज़रडोम" को एक दृश्य में उपयोग किए जाने के अलावा 1984 में सेट किए जाने का कोई वास्तविक कारण नहीं है।</t>
   </si>
   <si>
-    <t> हालाँकि, यहाँ ए क्रिसमस स्टोरी में, यह न केवल सर्वश्रेष्ठ है जिसे मैंने क्लार्क द्वारा निर्देशित करते देखा है बल्कि मुझे लगता है कि यह उनकी सर्वश्रेष्ठ फिल्म भी है। मुझे क्रिसमस फिल्में पसंद हैं, और जबकि ए क्रिसमस स्टोरी मेरी पूर्ण पसंदीदा नहीं है, मुझे लगता है कि यह पूरी तरह से योग्य है इसका शीर्षक कालातीत क्रिसमस खजाना है।</t>
-  </si>
-  <si>
-    <t> वह हिस्सा अभी भी काम करता है.</t>
-  </si>
-  <si>
-    <t> कार्रवाई और हिंसा के लिए इसे ""पीजी-13"" रेटिंग दी गई है और इसका चलने का समय 2 घंटे और 31 मिनट है।</t>
-  </si>
-  <si>
-    <t> चार्ज करने में आसान, मेरे कानों में टिकने वाला और बेहतरीन ध्वनि गुणवत्ता वाला।</t>
-  </si>
-  <si>
-    <t> बिलकुल भी टिकाऊ नहीं है.</t>
-  </si>
-  <si>
-    <t> त्रुटिपूर्ण डिस्क, फिल्म ख़त्म होने से लगभग 5-10 मिनट पहले बंद हो गई।</t>
-  </si>
-  <si>
-    <t> यह काम नहीं करता है और इससे बहुत बुरी गंध आती है</t>
-  </si>
-  <si>
-    <t> सलाद में सॉस की सही मात्रा थी ताकि स्कैलप पर अधिक दबाव न पड़े, जो पूरी तरह से पकाया गया था।</t>
+    <t>हालाँकि, यहाँ ए क्रिसमस स्टोरी में, यह न केवल सर्वश्रेष्ठ है जिसे मैंने क्लार्क द्वारा निर्देशित करते देखा है बल्कि मुझे लगता है कि यह उनकी सर्वश्रेष्ठ फिल्म भी है। मुझे क्रिसमस फिल्में पसंद हैं, और जबकि ए क्रिसमस स्टोरी मेरी पूर्ण पसंदीदा नहीं है, मुझे लगता है कि यह पूरी तरह से योग्य है इसका शीर्षक कालातीत क्रिसमस खजाना है।</t>
+  </si>
+  <si>
+    <t>वह हिस्सा अभी भी काम करता है.</t>
+  </si>
+  <si>
+    <t>कार्रवाई और हिंसा के लिए इसे ""पीजी-13"" रेटिंग दी गई है और इसका चलने का समय 2 घंटे और 31 मिनट है।</t>
+  </si>
+  <si>
+    <t>चार्ज करने में आसान, मेरे कानों में टिकने वाला और बेहतरीन ध्वनि गुणवत्ता वाला।</t>
+  </si>
+  <si>
+    <t>बिलकुल भी टिकाऊ नहीं है.</t>
+  </si>
+  <si>
+    <t>त्रुटिपूर्ण डिस्क, फिल्म ख़त्म होने से लगभग 5-10 मिनट पहले बंद हो गई।</t>
+  </si>
+  <si>
+    <t>यह काम नहीं करता है और इससे बहुत बुरी गंध आती है</t>
+  </si>
+  <si>
+    <t>सलाद में सॉस की सही मात्रा थी ताकि स्कैलप पर अधिक दबाव न पड़े, जो पूरी तरह से पकाया गया था।</t>
   </si>
   <si>
     <t>खाना मुश्किल से गुनगुना था, इसलिए वह सर्वर द्वारा हमारे लिए इसे बाहर लाने का इंतजार कर रहा होगा।</t>
   </si>
   <si>
-    <t> यह आपके मुँह में एक बहुत ही सेक्सी पार्टी की तरह है, जहाँ आप पार्टी में सबसे आकर्षक व्यक्ति के साथ अपमानजनक तरीके से फ़्लर्ट कर रहे हैं।</t>
-  </si>
-  <si>
-    <t> यह इस तथ्य के कारण था कि स्वीकार करने में 20 मिनट लगे, फिर हमारा भोजन प्राप्त करने में 35 मिनट लगे... और वे चीजें भूलते रहे।</t>
-  </si>
-  <si>
-    <t> इस बिंदु तक, मुझे और मेरे दोस्तों को मूल रूप से यह पता चल गया था कि यह जगह एक मजाक थी और इसे सार्वजनिक रूप से और जोर-शोर से प्रचारित करने में कोई आपत्ति नहीं थी।</t>
-  </si>
-  <si>
-    <t> पॉइंट = bbox2points (आयत) इनपुट आयत को परिवर्तित करता है, जिसे [xy चौड़ाई ऊंचाई] के रूप में निर्दिष्ट किया गया है, चार [xy] कोने बिंदुओं की सूची में।</t>
-  </si>
-  <si>
-    <t> y = logspace(a,b) दशकों 10^a और 10^b के बीच 50 लघुगणकीय दूरी वाले बिंदुओं की एक पंक्ति वेक्टर y उत्पन्न करता है।</t>
-  </si>
-  <si>
-    <t> पंक्ति का आकार कॉलम के आकार के समान होना चाहिए।</t>
-  </si>
-  <si>
-    <t> यदि आप आकृति के लिए कलरमैप सेट करते हैं, तो आकृति में अक्ष और चार्ट समान कलरमैप का उपयोग करते हैं।</t>
+    <t>यह आपके मुँह में एक बहुत ही सेक्सी पार्टी की तरह है, जहाँ आप पार्टी में सबसे आकर्षक व्यक्ति के साथ अपमानजनक तरीके से फ़्लर्ट कर रहे हैं।</t>
+  </si>
+  <si>
+    <t>यह इस तथ्य के कारण था कि स्वीकार करने में 20 मिनट लगे, फिर हमारा भोजन प्राप्त करने में 35 मिनट लगे... और वे चीजें भूलते रहे।</t>
+  </si>
+  <si>
+    <t>इस बिंदु तक, मुझे और मेरे दोस्तों को मूल रूप से यह पता चल गया था कि यह जगह एक मजाक थी और इसे सार्वजनिक रूप से और जोर-शोर से प्रचारित करने में कोई आपत्ति नहीं थी।</t>
+  </si>
+  <si>
+    <t>पॉइंट = bbox2points (आयत) इनपुट आयत को परिवर्तित करता है, जिसे [xy चौड़ाई ऊंचाई] के रूप में निर्दिष्ट किया गया है, चार [xy] कोने बिंदुओं की सूची में।</t>
+  </si>
+  <si>
+    <t>y = logspace(a,b) दशकों 10^a और 10^b के बीच 50 लघुगणकीय दूरी वाले बिंदुओं की एक पंक्ति वेक्टर y उत्पन्न करता है।</t>
+  </si>
+  <si>
+    <t>पंक्ति का आकार कॉलम के आकार के समान होना चाहिए।</t>
+  </si>
+  <si>
+    <t>यदि आप आकृति के लिए कलरमैप सेट करते हैं, तो आकृति में अक्ष और चार्ट समान कलरमैप का उपयोग करते हैं।</t>
   </si>
   <si>
     <t>अधिकांश छवि फ़ाइल स्वरूपों के लिए, imread छवि पिक्सेल को संग्रहीत करने के लिए प्रति रंग विमान 8 या उससे कम बिट्स का उपयोग करता है।</t>
   </si>
   <si>
-    <t> पढ़ने के लिए, एक गिलास पानी के ऊपर अंडा फोड़ें।</t>
-  </si>
-  <si>
-    <t> आरामदायक स्थिति में बैठें और नकारात्मक ऊर्जा को दूर करने के अपने इरादे पर ध्यान केंद्रित करें।</t>
-  </si>
-  <si>
-    <t> प्रत्येक सेट में 12 प्रतिनिधि करें।</t>
-  </si>
-  <si>
-    <t> ब्लेड को तने की ओर 45 डिग्री के कोण पर झुकाएं और इसे कद्दू में धकेलें।</t>
-  </si>
-  <si>
-    <t> इसे अक्सर पाइक पुश-अप कहा जाता है।</t>
-  </si>
-  <si>
-    <t> गर्म - गर्म परोसें।</t>
-  </si>
-  <si>
-    <t> मिश्रण के गाढ़ा होने तक, लगभग 5 मिनट तक लगातार हिलाते रहें।</t>
-  </si>
-  <si>
-    <t> मिश्रण पर ढक्कन लगाएं और बीच-बीच में हिलाते हुए 10 मिनट तक पकाते रहें।</t>
-  </si>
-  <si>
-    <t> 9 इंच चौकोर या 13x9 इंच के पैन को फ़ॉइल से पंक्तिबद्ध करें ताकि फ़ॉइल पैन के किनारों पर फैल जाए; मक्खन पन्नी.</t>
-  </si>
-  <si>
-    <t> एक बिना तेल वाले पैन को मध्यम तेज़ आग पर रखें और उस पर अपना हाथ रखकर उसकी सतह के तापमान का परीक्षण करें।</t>
-  </si>
-  <si>
-    <t> आप विभिन्न प्रकार के वाई-फाई नेटवर्क और हॉटस्पॉट से कनेक्शन कॉन्फ़िगर कर सकते हैं, सहेजे गए नेटवर्क प्रबंधित कर सकते हैं और अपने डिवाइस के नेटवर्क पते देख सकते हैं</t>
+    <t>पढ़ने के लिए, एक गिलास पानी के ऊपर अंडा फोड़ें।</t>
+  </si>
+  <si>
+    <t>आरामदायक स्थिति में बैठें और नकारात्मक ऊर्जा को दूर करने के अपने इरादे पर ध्यान केंद्रित करें।</t>
+  </si>
+  <si>
+    <t>प्रत्येक सेट में 12 प्रतिनिधि करें।</t>
+  </si>
+  <si>
+    <t>ब्लेड को तने की ओर 45 डिग्री के कोण पर झुकाएं और इसे कद्दू में धकेलें।</t>
+  </si>
+  <si>
+    <t>इसे अक्सर पाइक पुश-अप कहा जाता है।</t>
+  </si>
+  <si>
+    <t>गर्म - गर्म परोसें।</t>
+  </si>
+  <si>
+    <t>मिश्रण के गाढ़ा होने तक, लगभग 5 मिनट तक लगातार हिलाते रहें।</t>
+  </si>
+  <si>
+    <t>मिश्रण पर ढक्कन लगाएं और बीच-बीच में हिलाते हुए 10 मिनट तक पकाते रहें।</t>
+  </si>
+  <si>
+    <t>9 इंच चौकोर या 13x9 इंच के पैन को फ़ॉइल से पंक्तिबद्ध करें ताकि फ़ॉइल पैन के किनारों पर फैल जाए; मक्खन पन्नी.</t>
+  </si>
+  <si>
+    <t>एक बिना तेल वाले पैन को मध्यम तेज़ आग पर रखें और उस पर अपना हाथ रखकर उसकी सतह के तापमान का परीक्षण करें।</t>
+  </si>
+  <si>
+    <t>आप विभिन्न प्रकार के वाई-फाई नेटवर्क और हॉटस्पॉट से कनेक्शन कॉन्फ़िगर कर सकते हैं, सहेजे गए नेटवर्क प्रबंधित कर सकते हैं और अपने डिवाइस के नेटवर्क पते देख सकते हैं</t>
   </si>
   <si>
     <t>जिस डिवाइस पर आप स्थानांतरित कर रहे हैं उसे एनएफसी का समर्थन करना होगा, और यह आपके डिवाइस के चार सेंटीमीटर के भीतर होना चाहिए</t>
   </si>
   <si>
-    <t> छवियों, वीडियो, संगीत और ध्वनि क्लिप सहित अपने डिवाइस पर संग्रहीत फ़ाइलें देखें और प्रबंधित करें।</t>
-  </si>
-  <si>
-    <t> एंड्रॉइड ऑटो आपके डिवाइस स्क्रीन या आपकी संगत कार डिस्प्ले पर सबसे उपयोगी ऐप्स को एक प्रारूप में लाता है जिससे आपके लिए अपना मुख्य ध्यान ड्राइविंग पर रखना आसान हो जाता है।</t>
-  </si>
-  <si>
-    <t> माता-पिता की नियंत्रण सेटिंग्स को यह सुनिश्चित करने के लिए सक्षम किया जाना चाहिए कि बच्चों को माता-पिता द्वारा अनुमोदित सेवाओं या सामग्री तक पहुंच न मिले।</t>
-  </si>
-  <si>
-    <t> समुदाय के सदस्यों को ज़ूम का उपयोग करना चाहिए/सत्रों में भाग लेना चाहिए जब वे ऐसी जगह पर हों जहां वे ध्यान केंद्रित करने में सक्षम हों और खुद को या दूसरों को खतरे में न डालें</t>
-  </si>
-  <si>
-    <t> यदि आपको लगता है कि इस दस्तावेज़ में शब्दों में संशोधन की आवश्यकता है, तो बेझिझक स्लैक के माध्यम से या कार्यक्रम वेबसाइट पर दिए गए ई-मेल पते के माध्यम से किसी भी फातिमा फैलोशिप आयोजक से संपर्क करें।</t>
+    <t>छवियों, वीडियो, संगीत और ध्वनि क्लिप सहित अपने डिवाइस पर संग्रहीत फ़ाइलें देखें और प्रबंधित करें।</t>
+  </si>
+  <si>
+    <t>एंड्रॉइड ऑटो आपके डिवाइस स्क्रीन या आपकी संगत कार डिस्प्ले पर सबसे उपयोगी ऐप्स को एक प्रारूप में लाता है जिससे आपके लिए अपना मुख्य ध्यान ड्राइविंग पर रखना आसान हो जाता है।</t>
+  </si>
+  <si>
+    <t>माता-पिता की नियंत्रण सेटिंग्स को यह सुनिश्चित करने के लिए सक्षम किया जाना चाहिए कि बच्चों को माता-पिता द्वारा अनुमोदित सेवाओं या सामग्री तक पहुंच न मिले।</t>
+  </si>
+  <si>
+    <t>समुदाय के सदस्यों को ज़ूम का उपयोग करना चाहिए/सत्रों में भाग लेना चाहिए जब वे ऐसी जगह पर हों जहां वे ध्यान केंद्रित करने में सक्षम हों और खुद को या दूसरों को खतरे में न डालें</t>
+  </si>
+  <si>
+    <t>यदि आपको लगता है कि इस दस्तावेज़ में शब्दों में संशोधन की आवश्यकता है, तो बेझिझक स्लैक के माध्यम से या कार्यक्रम वेबसाइट पर दिए गए ई-मेल पते के माध्यम से किसी भी फातिमा फैलोशिप आयोजक से संपर्क करें।</t>
   </si>
   <si>
     <t>आचार संहिता के उल्लंघन की रिपोर्ट करने के प्रयोजनों के लिए रिकॉर्ड का एक फॉर्म बनाना केवल उल्लिखित उद्देश्य के लिए स्वीकार्य है, और केवल तभी जब इसे ऐसे उल्लंघनों को संभालने के लिए फातिमा फैलोशिप द्वारा नियुक्त आयोजक के साथ साझा किया जाता है।</t>
   </si>
   <si>
-    <t> हम स्वीकार करते हैं कि शोधकर्ताओं के रूप में हमारा काम अक्सर दूसरों के योगदान पर निर्भर करता है।</t>
-  </si>
-  <si>
-    <t> एक आयोजक, संरक्षक, या साथी के रूप में फातिमा फ़ेलोशिप में भागीदारी आपके और फातिमा फ़ेलोशिप और/या किसी अन्य समुदाय के सदस्य, या उनके गृह संस्थान के बीच किसी एजेंसी, साझेदारी या संयुक्त उद्यम का गठन नहीं करती है।</t>
-  </si>
-  <si>
-    <t> यदि इस अनुबंध की शर्तों को लागू करने के लिए कानूनी कार्रवाई आवश्यक है, तो प्रचलित पक्ष किसी भी अन्य उपाय के अतिरिक्त उचित वकील शुल्क का हकदार होगा, जिसके लिए वह पक्ष कानूनी रूप से हकदार हो सकता है।</t>
-  </si>
-  <si>
-    <t> ऐसी स्थिति में, कोई भी बकाया राशि तुरंत ठेकेदार को देय हो जाएगी।</t>
+    <t>हम स्वीकार करते हैं कि शोधकर्ताओं के रूप में हमारा काम अक्सर दूसरों के योगदान पर निर्भर करता है।</t>
+  </si>
+  <si>
+    <t>एक आयोजक, संरक्षक, या साथी के रूप में फातिमा फ़ेलोशिप में भागीदारी आपके और फातिमा फ़ेलोशिप और/या किसी अन्य समुदाय के सदस्य, या उनके गृह संस्थान के बीच किसी एजेंसी, साझेदारी या संयुक्त उद्यम का गठन नहीं करती है।</t>
+  </si>
+  <si>
+    <t>यदि इस अनुबंध की शर्तों को लागू करने के लिए कानूनी कार्रवाई आवश्यक है, तो प्रचलित पक्ष किसी भी अन्य उपाय के अतिरिक्त उचित वकील शुल्क का हकदार होगा, जिसके लिए वह पक्ष कानूनी रूप से हकदार हो सकता है।</t>
+  </si>
+  <si>
+    <t>ऐसी स्थिति में, कोई भी बकाया राशि तुरंत ठेकेदार को देय हो जाएगी।</t>
   </si>
   <si>
     <t>किसी भी पक्ष के नियंत्रण से बाहर किसी विनाशकारी घटना की स्थिति में, जो सेवाओं के प्रदर्शन को भौतिक रूप से प्रभावित करता है, जैसे: ईश्वर का एक कार्य (आग, विस्फोट, भूकंप, तूफान, प्राकृतिक) किसी भी पक्ष को आगे के प्रदर्शन दायित्वों से छूट देने का विकल्प चुन सकता है। आपदाएं, बाढ़, तूफान या संक्रमण), या युद्ध, आक्रमण, विदेशी शत्रुओं का कृत्य, प्रतिबंध, या अन्य शत्रुता (चाहे घोषित हो या नहीं), या किसी भी पक्ष के नियंत्रण से बाहर बनाई गई कोई खतरनाक स्थिति जैसे दंगा, अव्यवस्था, परमाणु रिसाव या विस्फोट, या आतंकवाद का कार्य या खतरा।</t>
   </si>
   <si>
-    <t> इस अनुबंध में शीर्षक और अनुभाग शीर्षलेख केवल सुविधा के लिए प्रदान किए गए हैं और इन्हें इस अनुबंध के भाग के रूप में नहीं समझा जाना चाहिए।</t>
-  </si>
-  <si>
-    <t> प्रत्येक टीम को प्रत्येक खेल में टीम के सभी योग्य सदस्यों के साथ खेलना आवश्यक है, जब तक कि कोई खिलाड़ी घायल न हो या अनुशासनात्मक कारणों से उसे हटा न दिया गया हो।</t>
-  </si>
-  <si>
-    <t> यदि 30 वर्ष और उससे अधिक आयु वर्ग में पर्याप्त संख्या में प्रतियोगी हों तो एक आयु समूह जोड़ा जा सकता है।</t>
+    <t>इस अनुबंध में शीर्षक और अनुभाग शीर्षलेख केवल सुविधा के लिए प्रदान किए गए हैं और इन्हें इस अनुबंध के भाग के रूप में नहीं समझा जाना चाहिए।</t>
+  </si>
+  <si>
+    <t>प्रत्येक टीम को प्रत्येक खेल में टीम के सभी योग्य सदस्यों के साथ खेलना आवश्यक है, जब तक कि कोई खिलाड़ी घायल न हो या अनुशासनात्मक कारणों से उसे हटा न दिया गया हो।</t>
+  </si>
+  <si>
+    <t>यदि 30 वर्ष और उससे अधिक आयु वर्ग में पर्याप्त संख्या में प्रतियोगी हों तो एक आयु समूह जोड़ा जा सकता है।</t>
   </si>
   <si>
     <t>यदि एक एकीकृत खेल प्रतिनिधि यह निर्धारित करता है कि कोई खिलाड़ी खेल पर हावी हो रहा है, तो वह अधिकारी कोच को मंजूरी देगा</t>
   </si>
   <si>
-    <t> कोई भी व्यक्ति, टीम या प्रतिनिधिमंडल जो विशेष ओलंपिक खेलों या उन गतिविधियों में अपने साथी विशेष ओलंपिक एथलीटों की जातीय मूल, लिंग, धर्म, राजनीतिक संबद्धता के आधार पर प्रतिस्पर्धा करने या भाग लेने से इनकार करता है, उसे खेलों में भाग लेने से अयोग्य घोषित कर दिया जाएगा। विचाराधीन घटना और उस घटना में पुरस्कार या मान्यता के लिए पात्र नहीं है</t>
-  </si>
-  <si>
-    <t> यदि किसी टीम का कोई भी सदस्य 14-17 वर्ष की आयु के बीच है, तो टीम के सबसे युवा और सबसे बुजुर्ग सदस्य के बीच का अंतर 5 वर्ष से अधिक नहीं होना चाहिए।</t>
-  </si>
-  <si>
-    <t> संयुक्त राज्य अमेरिका के उपराष्ट्रपति सीनेट के अध्यक्ष होंगे, लेकिन उनका कोई वोट नहीं होगा, जब तक कि वे समान रूप से विभाजित न हों</t>
+    <t>कोई भी व्यक्ति, टीम या प्रतिनिधिमंडल जो विशेष ओलंपिक खेलों या उन गतिविधियों में अपने साथी विशेष ओलंपिक एथलीटों की जातीय मूल, लिंग, धर्म, राजनीतिक संबद्धता के आधार पर प्रतिस्पर्धा करने या भाग लेने से इनकार करता है, उसे खेलों में भाग लेने से अयोग्य घोषित कर दिया जाएगा। विचाराधीन घटना और उस घटना में पुरस्कार या मान्यता के लिए पात्र नहीं है</t>
+  </si>
+  <si>
+    <t>यदि किसी टीम का कोई भी सदस्य 14-17 वर्ष की आयु के बीच है, तो टीम के सबसे युवा और सबसे बुजुर्ग सदस्य के बीच का अंतर 5 वर्ष से अधिक नहीं होना चाहिए।</t>
+  </si>
+  <si>
+    <t>संयुक्त राज्य अमेरिका के उपराष्ट्रपति सीनेट के अध्यक्ष होंगे, लेकिन उनका कोई वोट नहीं होगा, जब तक कि वे समान रूप से विभाजित न हों</t>
   </si>
   <si>
     <t>सर्वोच्च और निम्न दोनों न्यायालयों के न्यायाधीश, अच्छे व्यवहार के दौरान अपने पद संभालेंगे, और निर्धारित समय पर अपनी सेवाओं के लिए मुआवजा प्राप्त करेंगे, जो उनके पद पर बने रहने के दौरान कम नहीं किया जाएगा।</t>
   </si>
   <si>
-    <t> संयुक्त राज्य अमेरिका के किसी भी राज्य, क्षेत्र या कब्जे में नशीली शराब की डिलीवरी या उपयोग के लिए उसके कानूनों का उल्लंघन करते हुए परिवहन या आयात, इसके द्वारा निषिद्ध है।</t>
-  </si>
-  <si>
-    <t> थॉमस के अप्रभावी-सहायता दावे के संबंध में, पैनल ने निर्धारित किया कि राज्य बंदी अदालत ट्रायल वकील को अप्रभावी नहीं मानने में निष्पक्ष रूप से अनुचित नहीं थी, यह समझाते हुए कि जूरर नंबर पांच और जूरर नंबर छह के अंतरजातीय विवाह या प्रजनन के विरोध की जांच करने में वकील की विफलता संभवतः एक सामरिक निर्णय था.</t>
-  </si>
-  <si>
-    <t> यदि आवेदक न्यूयॉर्क की अदालतों से न तो त्वरित समीक्षा और न ही अंतरिम राहत चाहते हैं और प्राप्त करते हैं, तो वे इस अदालत में वापस आ सकते हैं</t>
+    <t>संयुक्त राज्य अमेरिका के किसी भी राज्य, क्षेत्र या कब्जे में नशीली शराब की डिलीवरी या उपयोग के लिए उसके कानूनों का उल्लंघन करते हुए परिवहन या आयात, इसके द्वारा निषिद्ध है।</t>
+  </si>
+  <si>
+    <t>थॉमस के अप्रभावी-सहायता दावे के संबंध में, पैनल ने निर्धारित किया कि राज्य बंदी अदालत ट्रायल वकील को अप्रभावी नहीं मानने में निष्पक्ष रूप से अनुचित नहीं थी, यह समझाते हुए कि जूरर नंबर पांच और जूरर नंबर छह के अंतरजातीय विवाह या प्रजनन के विरोध की जांच करने में वकील की विफलता संभवतः एक सामरिक निर्णय था.</t>
+  </si>
+  <si>
+    <t>यदि आवेदक न्यूयॉर्क की अदालतों से न तो त्वरित समीक्षा और न ही अंतरिम राहत चाहते हैं और प्राप्त करते हैं, तो वे इस अदालत में वापस आ सकते हैं</t>
   </si>
   <si>
     <t>संविधान के लिए खड़ा होना हमारा कर्तव्य है, भले ही ऐसा करना विवादास्पद हो</t>
   </si>
   <si>
-    <t> अन्य क़ानूनों में श्रम संबंध अधिनियम, व्यावसायिक सुरक्षा, स्वास्थ्य और कल्याण अधिनियम और श्रमिक मुआवजा अधिनियम शामिल हैं।</t>
-  </si>
-  <si>
-    <t> 2006-2010 और 2010-2014 की अवधि के बीच कांग्रेस में महिलाओं की भागीदारी में मामूली वृद्धि हुई, जो सीनेट में 12 से 16 प्रतिशत और प्रतिनिधि सभा में 10 से 12 प्रतिशत तक बढ़ गई;</t>
-  </si>
-  <si>
-    <t> अनियमित/अपूर्ण डेटा वाले संकेतकों में बाल मृत्यु दर और शिक्षा नामांकन शामिल हैं।</t>
-  </si>
-  <si>
-    <t> हम इस तथ्य से विशेष रूप से परेशान हैं कि उन खदानों का अंधाधुंध प्रभाव पड़ता है।</t>
-  </si>
-  <si>
-    <t> 2010-2011 फ़ेलोशिप पुरस्कारों के लिए आवेदन की अंतिम तिथि 15 अगस्त 2009 निर्धारित की गई थी, और फ़ेलोशिप चयन समिति आवेदनों की समीक्षा करने और 2010-2011 फ़ेलोशिप प्रदान करने के लिए 2009 की चौथी तिमाही में बैठक करेगी।</t>
-  </si>
-  <si>
-    <t> बैक्टीरिया आमतौर पर एक मीटर के कुछ मिलियनवें हिस्से तक लंबे होते हैं।</t>
+    <t>अन्य क़ानूनों में श्रम संबंध अधिनियम, व्यावसायिक सुरक्षा, स्वास्थ्य और कल्याण अधिनियम और श्रमिक मुआवजा अधिनियम शामिल हैं।</t>
+  </si>
+  <si>
+    <t>2006-2010 और 2010-2014 की अवधि के बीच कांग्रेस में महिलाओं की भागीदारी में मामूली वृद्धि हुई, जो सीनेट में 12 से 16 प्रतिशत और प्रतिनिधि सभा में 10 से 12 प्रतिशत तक बढ़ गई;</t>
+  </si>
+  <si>
+    <t>अनियमित/अपूर्ण डेटा वाले संकेतकों में बाल मृत्यु दर और शिक्षा नामांकन शामिल हैं।</t>
+  </si>
+  <si>
+    <t>हम इस तथ्य से विशेष रूप से परेशान हैं कि उन खदानों का अंधाधुंध प्रभाव पड़ता है।</t>
+  </si>
+  <si>
+    <t>2010-2011 फ़ेलोशिप पुरस्कारों के लिए आवेदन की अंतिम तिथि 15 अगस्त 2009 निर्धारित की गई थी, और फ़ेलोशिप चयन समिति आवेदनों की समीक्षा करने और 2010-2011 फ़ेलोशिप प्रदान करने के लिए 2009 की चौथी तिमाही में बैठक करेगी।</t>
+  </si>
+  <si>
+    <t>बैक्टीरिया आमतौर पर एक मीटर के कुछ मिलियनवें हिस्से तक लंबे होते हैं।</t>
   </si>
   <si>
     <t>हमारा छोटा टेराक्यूज़ ग्लोब उन लाखों लाखों विश्वों का पागलखाना है।</t>
   </si>
   <si>
-    <t> कासिम्बो में यह बहुत मीठा होता है, जब आप पीने के लिए कुछ गर्म लेकर अंदर होते हैं और आप बाहर पेड़ों के बीच से इसकी आवाज़ सुन सकते हैं।</t>
-  </si>
-  <si>
-    <t> वे कभी-कभी साबुनीकृत हो सकते हैं, जहां शरीर की वसा सचमुच साबुन जैसे पदार्थ में बदल जाती है, लेकिन इसमें काफी समय लगता है इसलिए मुझे संदेह है कि ऐसा यहां हुआ है।</t>
-  </si>
-  <si>
-    <t> वास्तव में शहरों के बारे में हमारी अंतर्जात चिंताओं के कारण, इन तीन शहरों को सभी विश्लेषणों से हटा दिया गया है, जैसे कि गोल्ड्सबोरो, वह शहर जहां कॉन्फेडरेट विपक्ष के आत्मसमर्पण के बाद मार्च समाप्त हुआ था।</t>
-  </si>
-  <si>
-    <t> दोनों काउंटी निश्चित प्रभावों और राज्य-दर-दशक निश्चित प्रभावों के मुख्य विनिर्देश में हमारा समावेश, साथ ही 1860 में मापे गए चर के आधार पर लचीले नियंत्रण, इसे असंभावित बनाता है, लेकिन यह इस संभावना को खारिज नहीं कर सकता है</t>
-  </si>
-  <si>
-    <t> विशेष रूप से, हम पोस्टबेलम अवधि के दौरान कृषि किरायेदारी और बटाईदारी में वृद्धि पर ध्यान केंद्रित करते हैं।</t>
+    <t>कासिम्बो में यह बहुत मीठा होता है, जब आप पीने के लिए कुछ गर्म लेकर अंदर होते हैं और आप बाहर पेड़ों के बीच से इसकी आवाज़ सुन सकते हैं।</t>
+  </si>
+  <si>
+    <t>वे कभी-कभी साबुनीकृत हो सकते हैं, जहां शरीर की वसा सचमुच साबुन जैसे पदार्थ में बदल जाती है, लेकिन इसमें काफी समय लगता है इसलिए मुझे संदेह है कि ऐसा यहां हुआ है।</t>
+  </si>
+  <si>
+    <t>वास्तव में शहरों के बारे में हमारी अंतर्जात चिंताओं के कारण, इन तीन शहरों को सभी विश्लेषणों से हटा दिया गया है, जैसे कि गोल्ड्सबोरो, वह शहर जहां कॉन्फेडरेट विपक्ष के आत्मसमर्पण के बाद मार्च समाप्त हुआ था।</t>
+  </si>
+  <si>
+    <t>दोनों काउंटी निश्चित प्रभावों और राज्य-दर-दशक निश्चित प्रभावों के मुख्य विनिर्देश में हमारा समावेश, साथ ही 1860 में मापे गए चर के आधार पर लचीले नियंत्रण, इसे असंभावित बनाता है, लेकिन यह इस संभावना को खारिज नहीं कर सकता है</t>
+  </si>
+  <si>
+    <t>विशेष रूप से, हम पोस्टबेलम अवधि के दौरान कृषि किरायेदारी और बटाईदारी में वृद्धि पर ध्यान केंद्रित करते हैं।</t>
   </si>
   <si>
     <t>अभी हाल ही में, खान (2015) ने दिखाया कि भौगोलिक गतिशीलता में गिरावट और सैन्य प्रौद्योगिकियों के लिए बढ़ती भुगतान के कारण युद्ध के दौरान संसाधनों का गलत आवंटन अल्पकालिक था और तकनीकी प्रगति की दीर्घकालिक क्षमता को बाधित नहीं करता था।</t>
   </si>
   <si>
-    <t> तत्काल युद्ध-पूर्व अवधि में, खेती "शर्मन घोड़ों" के साथ की जाती थी, पुराने, "पीड़े-पीड़े" और "दुर्व्यवहारित" जानवरों को केंद्रीय सेना ने मार्च के रास्ते पर ताजा सवारी के लिए बदल दिया था।</t>
-  </si>
-  <si>
-    <t> डेविड कैरन ने चेतावनी दी थी कि लेखों का स्वरूप सार पर असहमति को छिपा देगा: कि, उनके साफ-सुथरे स्वरूप से मंत्रमुग्ध होकर, अंतरराष्ट्रीय कानून के अभ्यासकर्ता लेखों के कुछ हिस्सों में मौजूद कुछ गहरी अनिश्चितताओं को नजरअंदाज कर देंगे।</t>
-  </si>
-  <si>
-    <t> और, स्पष्ट रूप से, आयोग के एन्कोडिंग अभ्यास ने नई अवधारणाओं को क्रिस्टलीकृत और गढ़ा और दूसरों को स्पष्ट किया।</t>
-  </si>
-  <si>
-    <t> ये चर्चाएँ फैलने के बाद फीकी पड़ जाती हैं और कई विवरणों और परिप्रेक्ष्यों में उलझ जाती हैं।</t>
+    <t>तत्काल युद्ध-पूर्व अवधि में, खेती "शर्मन घोड़ों" के साथ की जाती थी, पुराने, "पीड़े-पीड़े" और "दुर्व्यवहारित" जानवरों को केंद्रीय सेना ने मार्च के रास्ते पर ताजा सवारी के लिए बदल दिया था।</t>
+  </si>
+  <si>
+    <t>डेविड कैरन ने चेतावनी दी थी कि लेखों का स्वरूप सार पर असहमति को छिपा देगा: कि, उनके साफ-सुथरे स्वरूप से मंत्रमुग्ध होकर, अंतरराष्ट्रीय कानून के अभ्यासकर्ता लेखों के कुछ हिस्सों में मौजूद कुछ गहरी अनिश्चितताओं को नजरअंदाज कर देंगे।</t>
+  </si>
+  <si>
+    <t>और, स्पष्ट रूप से, आयोग के एन्कोडिंग अभ्यास ने नई अवधारणाओं को क्रिस्टलीकृत और गढ़ा और दूसरों को स्पष्ट किया।</t>
+  </si>
+  <si>
+    <t>ये चर्चाएँ फैलने के बाद फीकी पड़ जाती हैं और कई विवरणों और परिप्रेक्ष्यों में उलझ जाती हैं।</t>
   </si>
   <si>
     <t>लेइरिस का कहना है कि मेरे भीतर मृत्यु के प्रति जागरूकता है, इसलिए अवश्य ही कोई ऐसी घटना रही होगी जिसमें इसका सृजन हुआ।</t>
   </si>
   <si>
-    <t> आत्म-ज्ञान में दो प्रकार की बाधाएँ हैं, और दोनों को फ्रायड के प्रसिद्ध रूपक स्वप्न की नाभि में पढ़ा जा सकता है।</t>
-  </si>
-  <si>
-    <t> फ्रायड यहां कहते हैं कि हम जो नहीं खोज सकते, वह अनेक बिंदुओं में से एक बिंदु नहीं है, बल्कि बिंदु, स्वयं केंद्र, नाभि है जो हमें हमारे सबसे गहरे मूल से जोड़ती है।</t>
-  </si>
-  <si>
-    <t> जब गलत या अधूरी सोच ने गलत उत्तर के चयन में योगदान दिया, तो छात्र या समूह को उनकी सोच को सही दिशा में सुधारने या पुनर्निर्देशित करने में सहायता करने के लिए समय की आवश्यकता थी।</t>
-  </si>
-  <si>
-    <t> इसके लिए हमने संरचित फीडबैक के साथ रेटिंग पुनर्प्राप्ति अभ्यास को शामिल करते हुए छोटे समूह सीखने/मूल्यांकन (एसजीएल/ए) गतिविधियों की एक श्रृंखला विकसित की है जिसे हमने अपने प्रीक्लिनिकल न्यूरोएनाटॉमी पाठ्यक्रम में शामिल किया है।</t>
-  </si>
-  <si>
-    <t> हमने 42 छात्रों की अपनी कक्षा को सात-सात छात्रों के छह समूहों में विभाजित किया, प्रत्येक समूह को चरण 1 प्रकार के प्रश्नों का उत्तर देने के लिए मिलकर काम करने का निर्देश दिया गया।</t>
+    <t>आत्म-ज्ञान में दो प्रकार की बाधाएँ हैं, और दोनों को फ्रायड के प्रसिद्ध रूपक स्वप्न की नाभि में पढ़ा जा सकता है।</t>
+  </si>
+  <si>
+    <t>फ्रायड यहां कहते हैं कि हम जो नहीं खोज सकते, वह अनेक बिंदुओं में से एक बिंदु नहीं है, बल्कि बिंदु, स्वयं केंद्र, नाभि है जो हमें हमारे सबसे गहरे मूल से जोड़ती है।</t>
+  </si>
+  <si>
+    <t>जब गलत या अधूरी सोच ने गलत उत्तर के चयन में योगदान दिया, तो छात्र या समूह को उनकी सोच को सही दिशा में सुधारने या पुनर्निर्देशित करने में सहायता करने के लिए समय की आवश्यकता थी।</t>
+  </si>
+  <si>
+    <t>इसके लिए हमने संरचित फीडबैक के साथ रेटिंग पुनर्प्राप्ति अभ्यास को शामिल करते हुए छोटे समूह सीखने/मूल्यांकन (एसजीएल/ए) गतिविधियों की एक श्रृंखला विकसित की है जिसे हमने अपने प्रीक्लिनिकल न्यूरोएनाटॉमी पाठ्यक्रम में शामिल किया है।</t>
+  </si>
+  <si>
+    <t>हमने 42 छात्रों की अपनी कक्षा को सात-सात छात्रों के छह समूहों में विभाजित किया, प्रत्येक समूह को चरण 1 प्रकार के प्रश्नों का उत्तर देने के लिए मिलकर काम करने का निर्देश दिया गया।</t>
   </si>
   <si>
     <t>लेकिन विभाजन के राजनीति पक्ष पर भी, विशुद्ध रूप से राजनीति-केंद्रित दृष्टिकोण अपनाने वाले अध्ययनों का प्रतिशत नाटकीय रूप से घट रहा है।</t>
   </si>
   <si>
-    <t> राजनीतिक संचार साहित्य की अपनी व्यापक समीक्षाओं में, बुकी और डी'एंजेलो (1999, 2004) ने राजनीति में प्रेस की तीन निरंतर आलोचनाओं की पहचान की, जिन्हें मीडिया और लोकतंत्र की स्थायी आलोचना के रूप में तैयार किया गया: वीडियोमलाईज़ परिकल्पना, मीडिया घुसपैठ सिद्धांत, और सामाजिक क्षरण थीसिस.</t>
-  </si>
-  <si>
-    <t> ऐसा प्रतीत होता है कि साहित्य में पहले पहचाने गए राजनीति विज्ञान के पूर्वाग्रह कम हो गए हैं, कम से कम यहां विश्लेषण की गई दो पत्रिकाओं में, शायद नए प्लेटफार्मों और वितरण प्रौद्योगिकियों के विस्फोट के कारण, जिन्होंने अप्रत्याशित तरीकों से राजनीति में अपना रास्ता एकीकृत कर लिया है।</t>
-  </si>
-  <si>
-    <t> विशेष रूप से, संचार के मामले में, इस तरह का अभिसरण हितधारकों के बीच ज्ञान साझा करने या यहां तक कि बातचीत को सक्षम बनाता है, क्योंकि हर कोई एक ही "भाषा" बोल सकता है।</t>
+    <t>राजनीतिक संचार साहित्य की अपनी व्यापक समीक्षाओं में, बुकी और डी'एंजेलो (1999, 2004) ने राजनीति में प्रेस की तीन निरंतर आलोचनाओं की पहचान की, जिन्हें मीडिया और लोकतंत्र की स्थायी आलोचना के रूप में तैयार किया गया: वीडियोमलाईज़ परिकल्पना, मीडिया घुसपैठ सिद्धांत, और सामाजिक क्षरण थीसिस.</t>
+  </si>
+  <si>
+    <t>ऐसा प्रतीत होता है कि साहित्य में पहले पहचाने गए राजनीति विज्ञान के पूर्वाग्रह कम हो गए हैं, कम से कम यहां विश्लेषण की गई दो पत्रिकाओं में, शायद नए प्लेटफार्मों और वितरण प्रौद्योगिकियों के विस्फोट के कारण, जिन्होंने अप्रत्याशित तरीकों से राजनीति में अपना रास्ता एकीकृत कर लिया है।</t>
+  </si>
+  <si>
+    <t>विशेष रूप से, संचार के मामले में, इस तरह का अभिसरण हितधारकों के बीच ज्ञान साझा करने या यहां तक कि बातचीत को सक्षम बनाता है, क्योंकि हर कोई एक ही "भाषा" बोल सकता है।</t>
   </si>
   <si>
     <t>ज्ञात बाधाओं और पर्यावरण संरचना को देखते हुए, पारंपरिक गति नियोजन विधियां लंबी-क्षितिज की समस्याओं में भी, लक्ष्य प्रारंभ और लक्ष्य विन्यास [1] को जोड़ने वाले बाधा-मुक्त पथों को मजबूती से ढूंढ सकती हैं।</t>
   </si>
   <si>
-    <t> बेसलाइन विधियां विभिन्न प्रकार की वस्तुओं पर कौशल नीतियों को प्रशिक्षित नहीं करती हैं और इस प्रकार अक्सर 10 चरणों के भीतर कार्यों को पूरा नहीं कर पाती हैं।</t>
-  </si>
-  <si>
-    <t> गुलाबी पैंट में एक व्यक्ति गिटार बजा रहा है</t>
-  </si>
-  <si>
-    <t> एक छोटी लड़की कागज काट रही है।</t>
-  </si>
-  <si>
-    <t> कूड़ेदान पर संख्या 66 है।</t>
-  </si>
-  <si>
-    <t> रेलवे स्टेशन पर इंतज़ार कर रहे लोगों का एक बड़ा समूह।</t>
-  </si>
-  <si>
-    <t> एक छोटा लड़का गुब्बारे पकड़कर अपने पिता के कंधों पर बैठा है</t>
-  </si>
-  <si>
-    <t> सिर्फ इसलिए कि आप समुद्र से डरते हैं...</t>
-  </si>
-  <si>
-    <t> एक क्लाउनफ़िश के लिए, वह उतना मज़ेदार नहीं है।</t>
-  </si>
-  <si>
-    <t> मैंने सुना है उसने तीन को ले लिया।</t>
-  </si>
-  <si>
-    <t> मैं अब डर रहा हूं !</t>
-  </si>
-  <si>
-    <t> मुझे याद आया कि इसमें क्या कहा गया था।</t>
-  </si>
-  <si>
-    <t> पिचिंग टीले पर खड़ा लड़का गेंद को पकड़ने वाले की ओर फेंक रहा है।</t>
-  </si>
-  <si>
-    <t> एक आदमी बैठा है और अपने बाल कटवा रहा है जबकि एक महिला इसके बारे में बात कर रही है।</t>
+    <t>बेसलाइन विधियां विभिन्न प्रकार की वस्तुओं पर कौशल नीतियों को प्रशिक्षित नहीं करती हैं और इस प्रकार अक्सर 10 चरणों के भीतर कार्यों को पूरा नहीं कर पाती हैं।</t>
+  </si>
+  <si>
+    <t>गुलाबी पैंट में एक व्यक्ति गिटार बजा रहा है</t>
+  </si>
+  <si>
+    <t>एक छोटी लड़की कागज काट रही है।</t>
+  </si>
+  <si>
+    <t>कूड़ेदान पर संख्या 66 है।</t>
+  </si>
+  <si>
+    <t>रेलवे स्टेशन पर इंतज़ार कर रहे लोगों का एक बड़ा समूह।</t>
+  </si>
+  <si>
+    <t>एक छोटा लड़का गुब्बारे पकड़कर अपने पिता के कंधों पर बैठा है</t>
+  </si>
+  <si>
+    <t>सिर्फ इसलिए कि आप समुद्र से डरते हैं...</t>
+  </si>
+  <si>
+    <t>एक क्लाउनफ़िश के लिए, वह उतना मज़ेदार नहीं है।</t>
+  </si>
+  <si>
+    <t>मैंने सुना है उसने तीन को ले लिया।</t>
+  </si>
+  <si>
+    <t>मैं अब डर रहा हूं !</t>
+  </si>
+  <si>
+    <t>मुझे याद आया कि इसमें क्या कहा गया था।</t>
+  </si>
+  <si>
+    <t>पिचिंग टीले पर खड़ा लड़का गेंद को पकड़ने वाले की ओर फेंक रहा है।</t>
+  </si>
+  <si>
+    <t>एक आदमी बैठा है और अपने बाल कटवा रहा है जबकि एक महिला इसके बारे में बात कर रही है।</t>
   </si>
   <si>
     <t>बाहर बर्फ में खड़ा एक आदमी बुल्सआई टारगेट पर कुल्हाड़ी फेंक रहा है एक आदमी सैमुअल एडम्स के गिलास में कुछ बीयर डाल रहा है।</t>
   </si>
   <si>
-    <t> दो महिलाएं मंच पर बिजनेस सूट पहने तीन अन्य पुरुषों को पुरस्कार दे रही हैं।</t>
-  </si>
-  <si>
-    <t> एक आदमी एचडीएफसी बोर्ड देख रहा था और अपना सिर हिला रहा था और एक आदमी एटीएम से पैसे निकाल रहा था, एक प्यारा बच्चा अपने हाथों से शराब पी रहा था और दूसरा व्यक्ति मदद कर रहा था।</t>
-  </si>
-  <si>
-    <t> एक धातु कर्मचारी एक बड़ी धातु की प्लेट पर काम करने के लिए वेल्डिंग उपकरण का उपयोग करता है।</t>
-  </si>
-  <si>
-    <t> हमें वापस आने के लिए जो भी करना होगा वह करना होगा।'</t>
-  </si>
-  <si>
-    <t> मुझे लगता है कि यह यहां सिर्फ "सामान" है।</t>
-  </si>
-  <si>
-    <t> अब कोई खुले नाखून या कब्ज़े वाले घोंसले नहीं।</t>
-  </si>
-  <si>
-    <t> मेरा झूठ बोलने का इरादा कभी नहीं था, लेकिन मुझे झूठ बोलना पड़ा।</t>
-  </si>
-  <si>
-    <t> शायद हमें एक ब्रेक लेना चाहिए.</t>
-  </si>
-  <si>
-    <t> मिरांडा नाम की लड़कियाँ कभी यह नहीं सोचतीं कि जब आप उन्हें बताते हैं कि उन्हें चुप रहने का अधिकार है तो यह मज़ाक है।</t>
-  </si>
-  <si>
-    <t> काश मैं एक काली मिर्च होता तो मैं जलपीनो व्यवसाय कर पाता</t>
-  </si>
-  <si>
-    <t> जब मार्गरीटा से आपका मस्तिष्क स्थिर हो जाता है तो आप जान जाते हैं कि आपको समस्याएँ हैं</t>
-  </si>
-  <si>
-    <t> यदि आपको कभी कोई खौफनाक जोकर दिखाई दे तो... बाजीगर की तलाश करें</t>
+    <t>दो महिलाएं मंच पर बिजनेस सूट पहने तीन अन्य पुरुषों को पुरस्कार दे रही हैं।</t>
+  </si>
+  <si>
+    <t>एक आदमी एचडीएफसी बोर्ड देख रहा था और अपना सिर हिला रहा था और एक आदमी एटीएम से पैसे निकाल रहा था, एक प्यारा बच्चा अपने हाथों से शराब पी रहा था और दूसरा व्यक्ति मदद कर रहा था।</t>
+  </si>
+  <si>
+    <t>एक धातु कर्मचारी एक बड़ी धातु की प्लेट पर काम करने के लिए वेल्डिंग उपकरण का उपयोग करता है।</t>
+  </si>
+  <si>
+    <t>हमें वापस आने के लिए जो भी करना होगा वह करना होगा।'</t>
+  </si>
+  <si>
+    <t>मुझे लगता है कि यह यहां सिर्फ "सामान" है।</t>
+  </si>
+  <si>
+    <t>अब कोई खुले नाखून या कब्ज़े वाले घोंसले नहीं।</t>
+  </si>
+  <si>
+    <t>मेरा झूठ बोलने का इरादा कभी नहीं था, लेकिन मुझे झूठ बोलना पड़ा।</t>
+  </si>
+  <si>
+    <t>शायद हमें एक ब्रेक लेना चाहिए.</t>
+  </si>
+  <si>
+    <t>मिरांडा नाम की लड़कियाँ कभी यह नहीं सोचतीं कि जब आप उन्हें बताते हैं कि उन्हें चुप रहने का अधिकार है तो यह मज़ाक है।</t>
+  </si>
+  <si>
+    <t>काश मैं एक काली मिर्च होता तो मैं जलपीनो व्यवसाय कर पाता</t>
+  </si>
+  <si>
+    <t>जब मार्गरीटा से आपका मस्तिष्क स्थिर हो जाता है तो आप जान जाते हैं कि आपको समस्याएँ हैं</t>
+  </si>
+  <si>
+    <t>यदि आपको कभी कोई खौफनाक जोकर दिखाई दे तो... बाजीगर की तलाश करें</t>
   </si>
   <si>
     <t>वैज्ञानिकों ने पाया है... ...कि लोग उदासीनता की परवाह नहीं करते।</t>
   </si>
   <si>
-    <t> एक नापाक आदमी ने यह सब किया, सब कुछ किया: लेफ्टिनेंट कर्नल डू पैटी डी क्लैम, उस समय केवल एक कमांडेंट थे।</t>
-  </si>
-  <si>
-    <t> और फिर लगभग रातों-रात दांत और बाल और सारी उम्र और आप लगभग 10 वर्षों तक 50 वर्ष के हो जाते हैं, फिर जंग लगी चेन जैसी बड़ी गड़गड़ाहट के साथ आप 60 वर्ष के हो जाते हैं और इसी तरह।</t>
-  </si>
-  <si>
-    <t> यह शुद्ध गौरव है, जैसा कि तब था।</t>
-  </si>
-  <si>
-    <t> मुझे यकीन नहीं है कि हिट से आपका क्या मतलब है, जब तक कि आप उन सभी महान हिट चैनलों का जिक्र नहीं कर रहे हैं जिन्हें आप मेरी सेवा का उपयोग करने के बाद देख पाएंगे.. नमस्ते.. नमस्ते।</t>
-  </si>
-  <si>
-    <t> यह 20.75 इंच की टॉप ट्यूब फिट बाइक VH2 है।</t>
-  </si>
-  <si>
-    <t> मुझे इस आइटम में दिलचस्पी है.</t>
-  </si>
-  <si>
-    <t> यह एक शानदार बाइक है, इसे चलाने में बहुत कम समय लगता है, इसे हमेशा गैराज में रखा जाता है और वयस्क इसे चलाते हैं।</t>
-  </si>
-  <si>
-    <t> हमारे पास अभी ये सभी विकल्प उपलब्ध हैं, हालाँकि इस समय हमारे पास केवल कुछ 3 बेडरूम वाले अपार्टमेंट हैं।</t>
-  </si>
-  <si>
-    <t> क्या मैं आपकी मदद कर सकता हूं महाशय ?</t>
-  </si>
-  <si>
-    <t> मुझे नहीं पता कि मैंने उससे शादी क्यों की।</t>
-  </si>
-  <si>
-    <t> काश मुझे पता होता कि हमारे फूलों के गमले किसने हटाये थे।</t>
-  </si>
-  <si>
-    <t> बॉस ने क्या कहा?</t>
+    <t>एक नापाक आदमी ने यह सब किया, सब कुछ किया: लेफ्टिनेंट कर्नल डू पैटी डी क्लैम, उस समय केवल एक कमांडेंट थे।</t>
+  </si>
+  <si>
+    <t>और फिर लगभग रातों-रात दांत और बाल और सारी उम्र और आप लगभग 10 वर्षों तक 50 वर्ष के हो जाते हैं, फिर जंग लगी चेन जैसी बड़ी गड़गड़ाहट के साथ आप 60 वर्ष के हो जाते हैं और इसी तरह।</t>
+  </si>
+  <si>
+    <t>यह शुद्ध गौरव है, जैसा कि तब था।</t>
+  </si>
+  <si>
+    <t>मुझे यकीन नहीं है कि हिट से आपका क्या मतलब है, जब तक कि आप उन सभी महान हिट चैनलों का जिक्र नहीं कर रहे हैं जिन्हें आप मेरी सेवा का उपयोग करने के बाद देख पाएंगे.. नमस्ते.. नमस्ते।</t>
+  </si>
+  <si>
+    <t>यह 20.75 इंच की टॉप ट्यूब फिट बाइक VH2 है।</t>
+  </si>
+  <si>
+    <t>मुझे इस आइटम में दिलचस्पी है.</t>
+  </si>
+  <si>
+    <t>यह एक शानदार बाइक है, इसे चलाने में बहुत कम समय लगता है, इसे हमेशा गैराज में रखा जाता है और वयस्क इसे चलाते हैं।</t>
+  </si>
+  <si>
+    <t>हमारे पास अभी ये सभी विकल्प उपलब्ध हैं, हालाँकि इस समय हमारे पास केवल कुछ 3 बेडरूम वाले अपार्टमेंट हैं।</t>
+  </si>
+  <si>
+    <t>क्या मैं आपकी मदद कर सकता हूं महाशय ?</t>
+  </si>
+  <si>
+    <t>मुझे नहीं पता कि मैंने उससे शादी क्यों की।</t>
+  </si>
+  <si>
+    <t>काश मुझे पता होता कि हमारे फूलों के गमले किसने हटाये थे।</t>
+  </si>
+  <si>
+    <t>बॉस ने क्या कहा?</t>
   </si>
   <si>
     <t>क्या आप मुझे बता सकते हैं कि आपने मेरी पुस्तक कहाँ रखी है?</t>
   </si>
   <si>
-    <t> हर शुक्रवार सुबह 9 बजे का अलार्म सेट करें</t>
-  </si>
-  <si>
-    <t> आज शाम 6 बजे का अलार्म सेट करें</t>
-  </si>
-  <si>
-    <t> कृपया मेरे सभी अलार्म साफ़ करें</t>
-  </si>
-  <si>
-    <t> मेरा अलार्म बजने में कितना समय लगेगा?</t>
-  </si>
-  <si>
-    <t> मेरा अलार्म कितनी देर पहले बजता है?</t>
-  </si>
-  <si>
-    <t> टूटी हुई छवियों का ढेर, जहां सूरज चमकता है</t>
-  </si>
-  <si>
-    <t> धन्यवाद।</t>
-  </si>
-  <si>
-    <t> फिर भी बहुत तेज़ सर्दी थी</t>
-  </si>
-  <si>
-    <t> इस लाल चट्टान के नीचे छाया है</t>
-  </si>
-  <si>
-    <t> परिस्थितियों की महिला</t>
-  </si>
-  <si>
-    <t> 20 महीने की कड़ी मेहनत के बाद, महामारी अब हमारे जीवन को नियंत्रित नहीं करती है।</t>
-  </si>
-  <si>
-    <t> आपने मुझे यह कहते हुए सुना होगा: मुझे नहीं पता कि यह कहां लिखा है कि हम दुनिया की विनिर्माण राजधानी नहीं बन सकते।</t>
-  </si>
-  <si>
-    <t> आइए मेयर के लिए कैरेन बैस को वोट दें।</t>
-  </si>
-  <si>
-    <t> लेकिन अमेरिकी लोगों का भारी बहुमत मेरे आर्थिक एजेंडे के तत्वों का समर्थन करता है - अमेरिका की सड़कों और पुलों के पुनर्निर्माण से लेकर; डॉक्टरी दवा की लागत कम करने के लिए; जलवायु संकट से निपटने में एक ऐतिहासिक निवेश के लिए; यह सुनिश्चित करने के लिए कि बड़े निगम करों में अपना उचित हिस्सा देना शुरू करें।</t>
+    <t>हर शुक्रवार सुबह 9 बजे का अलार्म सेट करें</t>
+  </si>
+  <si>
+    <t>आज शाम 6 बजे का अलार्म सेट करें</t>
+  </si>
+  <si>
+    <t>कृपया मेरे सभी अलार्म साफ़ करें</t>
+  </si>
+  <si>
+    <t>मेरा अलार्म बजने में कितना समय लगेगा?</t>
+  </si>
+  <si>
+    <t>मेरा अलार्म कितनी देर पहले बजता है?</t>
+  </si>
+  <si>
+    <t>टूटी हुई छवियों का ढेर, जहां सूरज चमकता है</t>
+  </si>
+  <si>
+    <t>धन्यवाद।</t>
+  </si>
+  <si>
+    <t>फिर भी बहुत तेज़ सर्दी थी</t>
+  </si>
+  <si>
+    <t>इस लाल चट्टान के नीचे छाया है</t>
+  </si>
+  <si>
+    <t>परिस्थितियों की महिला</t>
+  </si>
+  <si>
+    <t>20 महीने की कड़ी मेहनत के बाद, महामारी अब हमारे जीवन को नियंत्रित नहीं करती है।</t>
+  </si>
+  <si>
+    <t>आपने मुझे यह कहते हुए सुना होगा: मुझे नहीं पता कि यह कहां लिखा है कि हम दुनिया की विनिर्माण राजधानी नहीं बन सकते।</t>
+  </si>
+  <si>
+    <t>आइए मेयर के लिए कैरेन बैस को वोट दें।</t>
+  </si>
+  <si>
+    <t>लेकिन अमेरिकी लोगों का भारी बहुमत मेरे आर्थिक एजेंडे के तत्वों का समर्थन करता है - अमेरिका की सड़कों और पुलों के पुनर्निर्माण से लेकर; डॉक्टरी दवा की लागत कम करने के लिए; जलवायु संकट से निपटने में एक ऐतिहासिक निवेश के लिए; यह सुनिश्चित करने के लिए कि बड़े निगम करों में अपना उचित हिस्सा देना शुरू करें।</t>
   </si>
   <si>
     <t>और मुझे विश्वास है कि ये नीतियां काम कर रही हैं और हम सही रास्ते पर हैं, और हमें उनके साथ बने रहने की जरूरत है।</t>
   </si>
   <si>
-    <t> क्योंकि वे न्यूयॉर्क, शिकागो या एलए जैसी संगीत राजधानियों के बगल में रहते थे, उन्होंने सप्ताहांत में जूलियार्ड जैसी जगहों पर अध्ययन किया।</t>
-  </si>
-  <si>
-    <t> यदि आपका उनसे सामना नहीं हुआ तो?</t>
-  </si>
-  <si>
-    <t> ये जीवित मांसपेशियां पोषक तत्वों से मिलने वाली रासायनिक ऊर्जा को मांसपेशियों के संकुचन में कुशलतापूर्वक परिवर्तित करती हैं।</t>
-  </si>
-  <si>
-    <t> संयुक्त राज्य अमेरिका में, कम आय वाले छात्र बाधाओं का सामना करने के कारण रिकॉर्ड दर पर सामुदायिक कॉलेजों से बाहर हो जाते हैं।</t>
-  </si>
-  <si>
-    <t> आप क्या होते देखना चाहते हैं?</t>
-  </si>
-  <si>
-    <t> मुझे 7 प्रमाणपत्र कहां मिल सकता है?</t>
-  </si>
-  <si>
-    <t> हिंदू मंदिरों के बारे में रोचक तथ्य क्या हैं?</t>
-  </si>
-  <si>
-    <t> यदि क्वाडकॉप्टर के निर्माण में कठिन हिस्सा है?</t>
-  </si>
-  <si>
-    <t> फायरबेस वजन कैसे कम करता है इसका सरल समझने योग्य समाधान मुझे कहां मिलेगा?</t>
-  </si>
-  <si>
-    <t> मेरे बिल्ली के बच्चे उस पर फुफकार क्यों रहे हैं?</t>
-  </si>
-  <si>
-    <t> UNIX कौन सा वर्ग था?</t>
-  </si>
-  <si>
-    <t> हालाँकि मैं इंजीनियर नहीं था, इसलिए यदि मैं गलत हूँ तो इंजीनियरिंग कॉलेज में पढ़ने वाला कोई व्यक्ति मुझे सुधार सकता है।</t>
+    <t>क्योंकि वे न्यूयॉर्क, शिकागो या एलए जैसी संगीत राजधानियों के बगल में रहते थे, उन्होंने सप्ताहांत में जूलियार्ड जैसी जगहों पर अध्ययन किया।</t>
+  </si>
+  <si>
+    <t>यदि आपका उनसे सामना नहीं हुआ तो?</t>
+  </si>
+  <si>
+    <t>ये जीवित मांसपेशियां पोषक तत्वों से मिलने वाली रासायनिक ऊर्जा को मांसपेशियों के संकुचन में कुशलतापूर्वक परिवर्तित करती हैं।</t>
+  </si>
+  <si>
+    <t>संयुक्त राज्य अमेरिका में, कम आय वाले छात्र बाधाओं का सामना करने के कारण रिकॉर्ड दर पर सामुदायिक कॉलेजों से बाहर हो जाते हैं।</t>
+  </si>
+  <si>
+    <t>आप क्या होते देखना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>मुझे 7 प्रमाणपत्र कहां मिल सकता है?</t>
+  </si>
+  <si>
+    <t>हिंदू मंदिरों के बारे में रोचक तथ्य क्या हैं?</t>
+  </si>
+  <si>
+    <t>यदि क्वाडकॉप्टर के निर्माण में कठिन हिस्सा है?</t>
+  </si>
+  <si>
+    <t>फायरबेस वजन कैसे कम करता है इसका सरल समझने योग्य समाधान मुझे कहां मिलेगा?</t>
+  </si>
+  <si>
+    <t>मेरे बिल्ली के बच्चे उस पर फुफकार क्यों रहे हैं?</t>
+  </si>
+  <si>
+    <t>UNIX कौन सा वर्ग था?</t>
+  </si>
+  <si>
+    <t>हालाँकि मैं इंजीनियर नहीं था, इसलिए यदि मैं गलत हूँ तो इंजीनियरिंग कॉलेज में पढ़ने वाला कोई व्यक्ति मुझे सुधार सकता है।</t>
   </si>
   <si>
     <t>तो हाँ, आपको सभी अंक भेजने होंगे।</t>
   </si>
   <si>
-    <t> यदि आप अधिक "पारंपरिक" भीड़ अनुभव चाहते हैं तो आप अभी भी वसंत ऋतु में दौड़ सकते हैं।</t>
-  </si>
-  <si>
-    <t> मैं मेजर में हूं और मैंने अच्छा प्रदर्शन किया है।</t>
+    <t>यदि आप अधिक "पारंपरिक" भीड़ अनुभव चाहते हैं तो आप अभी भी वसंत ऋतु में दौड़ सकते हैं।</t>
+  </si>
+  <si>
+    <t>मैं मेजर में हूं और मैंने अच्छा प्रदर्शन किया है।</t>
   </si>
   <si>
     <t xml:space="preserve"> मैं एक डेटाबेस का नाम बदलना चाहता हूं, लेकिन डेटाबेस पर 'एक्सक्लूसिव लॉक नहीं मिल सका' त्रुटि मिलती रहती है, जिसका अर्थ है कि कुछ कनेक्शन अभी भी सक्रिय हैं</t>
   </si>
   <si>
-    <t> वास्तव में svn:checksum त्रुटि का कारण क्या है, और सबसे अच्छा समाधान क्या है।</t>
-  </si>
-  <si>
-    <t> मैं ASP.NET एप्लिकेशन में त्रुटियों को लॉग करने का सबसे अच्छा तरीका ढूंढ रहा हूं।</t>
-  </si>
-  <si>
-    <t> वर्तमान पासवर्ड के रूप में प्रदान किया गया मान गलत है।</t>
-  </si>
-  <si>
-    <t> उनमें से अधिकांश सेटिंग्स कुछ व्यावसायिक नियमों को अनुकूलित करने के लिए हैं, लेकिन उनमें कुछ अन्य चीजें भी हैं।</t>
-  </si>
-  <si>
-    <t> मैं इतना चतुर हूं कि कभी-कभी मैं जो कह रहा हूं उसका एक भी शब्द समझ नहीं आता।</t>
-  </si>
-  <si>
-    <t> सपनों के बारे में सोचते रहना और जीना भूल जाना उचित नहीं है।</t>
-  </si>
-  <si>
-    <t> जैसे ही उसने पढ़ा, मुझे उसी तरह प्यार हो गया जैसे आप सो जाते हैं: धीरे-धीरे, और फिर एक ही बार में।</t>
+    <t>वास्तव में svn:checksum त्रुटि का कारण क्या है, और सबसे अच्छा समाधान क्या है।</t>
+  </si>
+  <si>
+    <t>मैं ASP.NET एप्लिकेशन में त्रुटियों को लॉग करने का सबसे अच्छा तरीका ढूंढ रहा हूं।</t>
+  </si>
+  <si>
+    <t>वर्तमान पासवर्ड के रूप में प्रदान किया गया मान गलत है।</t>
+  </si>
+  <si>
+    <t>उनमें से अधिकांश सेटिंग्स कुछ व्यावसायिक नियमों को अनुकूलित करने के लिए हैं, लेकिन उनमें कुछ अन्य चीजें भी हैं।</t>
+  </si>
+  <si>
+    <t>मैं इतना चतुर हूं कि कभी-कभी मैं जो कह रहा हूं उसका एक भी शब्द समझ नहीं आता।</t>
+  </si>
+  <si>
+    <t>सपनों के बारे में सोचते रहना और जीना भूल जाना उचित नहीं है।</t>
+  </si>
+  <si>
+    <t>जैसे ही उसने पढ़ा, मुझे उसी तरह प्यार हो गया जैसे आप सो जाते हैं: धीरे-धीरे, और फिर एक ही बार में।</t>
   </si>
   <si>
     <t>हम ऐसे प्रेम को स्वीकार करते हैं जो हमारे अनुसार हमें मिलना चाहिए।</t>
   </si>
   <si>
-    <t> इतने कम समय में बहुत सी पुस्तकें।</t>
-  </si>
-  <si>
-    <t> जैसिंडा अर्डर्न और न्यूज़ीलैंड लेबर पार्टी ने पुनः चुनाव जीतने के लिए न्यूज़ीलैंड मीडिया को रिश्वत दी और न्यूज़ीलैंड में चुनाव में धोखाधड़ी हुई है</t>
-  </si>
-  <si>
-    <t> अफ़्रीका में (मलेरिया) के कारण हर मिनट एक बच्चे की मृत्यु हो जाती है।</t>
-  </si>
-  <si>
-    <t> सिंगापुर में एक नया COVID-19 वैरिएंट आया है जो बेहद खतरनाक है</t>
-  </si>
-  <si>
-    <t> आज 27 मिलियन लोग गुलाम हैं।</t>
-  </si>
-  <si>
-    <t> ट्रम्प बिल ओ'रेली के साथ स्पीकिंग टूर शुरू करेंगे</t>
-  </si>
-  <si>
-    <t> जॉर्जिया के फुल्टन काउंटी के एक न्यायाधीश ने 2020 से अनुपस्थित मतपत्रों को खोलने और धोखाधड़ी के लिए जांच करने की अनुमति देने वाले एक प्रस्ताव को मंजूरी दे दी है, जिससे चुनाव परिणामों के एक और ऑडिट का रास्ता साफ हो गया है।</t>
-  </si>
-  <si>
-    <t> मैं अब उस बारे में बात भी नहीं कर रहा हूं, कनाडा टोरंटो वाला एकमात्र देश नहीं है।</t>
-  </si>
-  <si>
-    <t> दुख की बात है कि अगले चुनाव के लिए यह मुकाबला अच्छा नहीं है, इसलिए यह विवादास्पद है...</t>
-  </si>
-  <si>
-    <t> ट्रम्प का "भाग्य, एक बहुत ही महत्वपूर्ण शब्द" वाला भाषण याद है?</t>
+    <t>इतने कम समय में बहुत सी पुस्तकें।</t>
+  </si>
+  <si>
+    <t>जैसिंडा अर्डर्न और न्यूज़ीलैंड लेबर पार्टी ने पुनः चुनाव जीतने के लिए न्यूज़ीलैंड मीडिया को रिश्वत दी और न्यूज़ीलैंड में चुनाव में धोखाधड़ी हुई है</t>
+  </si>
+  <si>
+    <t>अफ़्रीका में (मलेरिया) के कारण हर मिनट एक बच्चे की मृत्यु हो जाती है।</t>
+  </si>
+  <si>
+    <t>सिंगापुर में एक नया COVID-19 वैरिएंट आया है जो बेहद खतरनाक है</t>
+  </si>
+  <si>
+    <t>आज 27 मिलियन लोग गुलाम हैं।</t>
+  </si>
+  <si>
+    <t>ट्रम्प बिल ओ'रेली के साथ स्पीकिंग टूर शुरू करेंगे</t>
+  </si>
+  <si>
+    <t>जॉर्जिया के फुल्टन काउंटी के एक न्यायाधीश ने 2020 से अनुपस्थित मतपत्रों को खोलने और धोखाधड़ी के लिए जांच करने की अनुमति देने वाले एक प्रस्ताव को मंजूरी दे दी है, जिससे चुनाव परिणामों के एक और ऑडिट का रास्ता साफ हो गया है।</t>
+  </si>
+  <si>
+    <t>मैं अब उस बारे में बात भी नहीं कर रहा हूं, कनाडा टोरंटो वाला एकमात्र देश नहीं है।</t>
+  </si>
+  <si>
+    <t>दुख की बात है कि अगले चुनाव के लिए यह मुकाबला अच्छा नहीं है, इसलिए यह विवादास्पद है...</t>
+  </si>
+  <si>
+    <t>ट्रम्प का "भाग्य, एक बहुत ही महत्वपूर्ण शब्द" वाला भाषण याद है?</t>
   </si>
   <si>
     <t>फिनिश एक्सेल कंपोजिट्स, एक प्रौद्योगिकी कंपनी जो विभिन्न औद्योगिक अनुप्रयोगों के लिए मिश्रित प्रोफाइल और ट्यूबों को डिजाइन, निर्माण और विपणन करती है, रिपोर्ट करती है कि 2010 की दूसरी तिमाही में इसकी शुद्ध बिक्री 0.6% कम होकर 19.2 मिलियन यूरो हो गई, जो इसी अवधि में 19.3 मिलियन यूरो थी। 2009 .</t>
   </si>
   <si>
-    <t> इस लेनदेन को स्टैंडर्ड चार्टर्ड बैंक हांगकांग द्वारा दिए गए EUR40m बाजार-आधारित ऋण से वित्तपोषित करने की योजना है।</t>
-  </si>
-  <si>
-    <t> समेकित कर-पूर्व लाभ 2007 में 133.1 मिलियन यूरो से 69.2% घटकर 41.0 मिलियन यूरो हो गया।</t>
-  </si>
-  <si>
-    <t> 2007 की तीसरी तिमाही में, कुल शुद्ध बिक्री EUR 25.95 मिलियन थी, और परिचालन लाभ EUR 3.88 मिलियन था।</t>
-  </si>
-  <si>
-    <t> प्रत्येक शेयर एक वोट का हकदार है।</t>
-  </si>
-  <si>
-    <t> जानिक्ज़ा ब्रावो और ब्रेट जेलमैन की "लेमन" वास्तव में अस्थिर इंडी में श्वेत पुरुष औसत दर्जे की खोज करती है।</t>
-  </si>
-  <si>
-    <t> एमी रोज़ स्पीगल के "एक्शन" को यह मिलता है।</t>
-  </si>
-  <si>
-    <t> यदि यह केवल कल्पना होती.</t>
-  </si>
-  <si>
-    <t> लेखक लिखेंगे, और पाठक पढ़ेंगे - इससे कोई फर्क नहीं पड़ता कि आप हम पर कितना ध्यान भटकाते हैं।</t>
+    <t>इस लेनदेन को स्टैंडर्ड चार्टर्ड बैंक हांगकांग द्वारा दिए गए EUR40m बाजार-आधारित ऋण से वित्तपोषित करने की योजना है।</t>
+  </si>
+  <si>
+    <t>समेकित कर-पूर्व लाभ 2007 में 133.1 मिलियन यूरो से 69.2% घटकर 41.0 मिलियन यूरो हो गया।</t>
+  </si>
+  <si>
+    <t>2007 की तीसरी तिमाही में, कुल शुद्ध बिक्री EUR 25.95 मिलियन थी, और परिचालन लाभ EUR 3.88 मिलियन था।</t>
+  </si>
+  <si>
+    <t>प्रत्येक शेयर एक वोट का हकदार है।</t>
+  </si>
+  <si>
+    <t>जानिक्ज़ा ब्रावो और ब्रेट जेलमैन की "लेमन" वास्तव में अस्थिर इंडी में श्वेत पुरुष औसत दर्जे की खोज करती है।</t>
+  </si>
+  <si>
+    <t>एमी रोज़ स्पीगल के "एक्शन" को यह मिलता है।</t>
+  </si>
+  <si>
+    <t>यदि यह केवल कल्पना होती.</t>
+  </si>
+  <si>
+    <t>लेखक लिखेंगे, और पाठक पढ़ेंगे - इससे कोई फर्क नहीं पड़ता कि आप हम पर कितना ध्यान भटकाते हैं।</t>
   </si>
   <si>
     <t>कलाकार टेगा ब्रेन ने एक वेबसाइट बनाई है जो सूचीबद्ध करती है कि यदि कला निधि समाप्त हो जाती है तो क्या खो सकता है।</t>
   </si>
   <si>
-    <t> हर हफ्ते ऐप्पल साम्राज्य की साजिशों को कवर करने वाले कई ब्लॉग अपुष्ट अफवाहें, ज़बरदस्त अटकलें लगाते हैं</t>
-  </si>
-  <si>
-    <t> पारंपरिक खुदरा विक्रेता ई-कॉमर्स पर जोर दे रहे हैं, लेकिन उनके प्रयास विफल रहे हैं।</t>
-  </si>
-  <si>
-    <t> पिछले कई वर्षों से ईंटों, क्यूब्स, गोले और यहां तक कि कछुए के साथ ब्लूटूथ स्पीकर अधिक आकर्षक होते जा रहे हैं</t>
-  </si>
-  <si>
-    <t> आभासी वास्तविकता के बारे में बात यह है कि यह बहुत लंबे समय से अस्तित्व में है। याद है जब दूसरा जीवन इतना गर्म था? ख़ैर, वह बहुत समय पहले की बात है।</t>
-  </si>
-  <si>
-    <t> Apple ने हाल ही में एक दिलचस्प नियुक्ति की है। क्या हम इंजनों को घूमते हुए सुनते हैं?</t>
-  </si>
-  <si>
-    <t> यदि कांग्रेस कार्रवाई नहीं करती है तो अमेरिका 3 नवंबर को अपने ऋणों पर चूक कर देगा।</t>
-  </si>
-  <si>
-    <t> बड़े धन वाले सुपर पीएसी ने राष्ट्रपति की नकदी का लगभग आधा हिस्सा जुटाया है।</t>
-  </si>
-  <si>
-    <t> “हमें एक कक्षा में बंद कर दिया गया है। हमने अपने दोस्तों को अपने माता-पिता को अलविदा कहते हुए देखा है। हम विशेषज्ञ हैं।"</t>
+    <t>हर हफ्ते ऐप्पल साम्राज्य की साजिशों को कवर करने वाले कई ब्लॉग अपुष्ट अफवाहें, ज़बरदस्त अटकलें लगाते हैं</t>
+  </si>
+  <si>
+    <t>पारंपरिक खुदरा विक्रेता ई-कॉमर्स पर जोर दे रहे हैं, लेकिन उनके प्रयास विफल रहे हैं।</t>
+  </si>
+  <si>
+    <t>पिछले कई वर्षों से ईंटों, क्यूब्स, गोले और यहां तक कि कछुए के साथ ब्लूटूथ स्पीकर अधिक आकर्षक होते जा रहे हैं</t>
+  </si>
+  <si>
+    <t>आभासी वास्तविकता के बारे में बात यह है कि यह बहुत लंबे समय से अस्तित्व में है। याद है जब दूसरा जीवन इतना गर्म था? ख़ैर, वह बहुत समय पहले की बात है।</t>
+  </si>
+  <si>
+    <t>Apple ने हाल ही में एक दिलचस्प नियुक्ति की है। क्या हम इंजनों को घूमते हुए सुनते हैं?</t>
+  </si>
+  <si>
+    <t>यदि कांग्रेस कार्रवाई नहीं करती है तो अमेरिका 3 नवंबर को अपने ऋणों पर चूक कर देगा।</t>
+  </si>
+  <si>
+    <t>बड़े धन वाले सुपर पीएसी ने राष्ट्रपति की नकदी का लगभग आधा हिस्सा जुटाया है।</t>
+  </si>
+  <si>
+    <t>“हमें एक कक्षा में बंद कर दिया गया है। हमने अपने दोस्तों को अपने माता-पिता को अलविदा कहते हुए देखा है। हम विशेषज्ञ हैं।"</t>
   </si>
   <si>
     <t>पूर्व अभियोजक ने कहा कि एफबीआई का निर्णय "निष्पक्षता और निष्पक्षता के सबसे बुनियादी नियमों" का उल्लंघन करता है।</t>
   </si>
   <si>
-    <t> वह लंबे समय तक डेमोक्रेट रहीं।</t>
-  </si>
-  <si>
-    <t> उन्होंने एक फोन साक्षात्कार में कहा, "यह मेरा पैसा है। मुझे एक नई छत की जरूरत है।" "यह जानकर घबराहट होती है कि कोई एक टुकड़ा ले रहा है</t>
-  </si>
-  <si>
-    <t> जैसा कि बेट्सी मायर्स टेक द लीड में कहती हैं, नेता निडर नहीं होते हैं लेकिन उनमें अपने डर का सामना करने और उसे दूर करने का साहस होता है</t>
-  </si>
-  <si>
-    <t> नया सिक्का वह अच्छी खबर है जिसे लोग 2020 की खराब शुरुआत के बाद चाह रहे थे।</t>
-  </si>
-  <si>
-    <t> ज़रा सोचिए अगर विक्रेता आपको बताए कि वास्तव में क्या होने वाला है: "आम तौर पर यह पोशाक $250 है लेकिन हम एक</t>
-  </si>
-  <si>
-    <t> सेंटेनियल, कोलो. का 17 वर्षीय डैनियल जोसेफ, रैटलस्नेक द्वारा दो बार काटने के बाद आपातकालीन कक्ष में गया, सीबीएस डेनवर</t>
-  </si>
-  <si>
-    <t> खेल शुरू करते हैं।</t>
-  </si>
-  <si>
-    <t> कनाडाई मेगन डुहामेल और एरिक रैडफोर्ड ने बड़ा जोखिम उठाया और इसका फल उन्हें मिला।</t>
-  </si>
-  <si>
-    <t> सटीक रूप से कहें तो लिन ब्रुकलिन के लिए रवाना हो गया है।</t>
+    <t>वह लंबे समय तक डेमोक्रेट रहीं।</t>
+  </si>
+  <si>
+    <t>उन्होंने एक फोन साक्षात्कार में कहा, "यह मेरा पैसा है। मुझे एक नई छत की जरूरत है।" "यह जानकर घबराहट होती है कि कोई एक टुकड़ा ले रहा है</t>
+  </si>
+  <si>
+    <t>जैसा कि बेट्सी मायर्स टेक द लीड में कहती हैं, नेता निडर नहीं होते हैं लेकिन उनमें अपने डर का सामना करने और उसे दूर करने का साहस होता है</t>
+  </si>
+  <si>
+    <t>नया सिक्का वह अच्छी खबर है जिसे लोग 2020 की खराब शुरुआत के बाद चाह रहे थे।</t>
+  </si>
+  <si>
+    <t>ज़रा सोचिए अगर विक्रेता आपको बताए कि वास्तव में क्या होने वाला है: "आम तौर पर यह पोशाक $250 है लेकिन हम एक</t>
+  </si>
+  <si>
+    <t>सेंटेनियल, कोलो. का 17 वर्षीय डैनियल जोसेफ, रैटलस्नेक द्वारा दो बार काटने के बाद आपातकालीन कक्ष में गया, सीबीएस डेनवर</t>
+  </si>
+  <si>
+    <t>खेल शुरू करते हैं।</t>
+  </si>
+  <si>
+    <t>कनाडाई मेगन डुहामेल और एरिक रैडफोर्ड ने बड़ा जोखिम उठाया और इसका फल उन्हें मिला।</t>
+  </si>
+  <si>
+    <t>सटीक रूप से कहें तो लिन ब्रुकलिन के लिए रवाना हो गया है।</t>
   </si>
   <si>
     <t>फ्रंट ऑफिस के एक व्यक्ति ने कहा कि उनकी टीम 5-10 कॉर्नर के साथ ठीक है जब तक कि खिलाड़ी के हाथ लंबे हों। लंबी भुजाएँ सक्षम बनाती हैं</t>
   </si>
   <si>
-    <t> गिरता हुआ अमेरिकी स्की सितारा बिना पदक के बीजिंग शीतकालीन ओलंपिक छोड़ देगा लेकिन वह "आशावादी" है।</t>
+    <t>गिरता हुआ अमेरिकी स्की सितारा बिना पदक के बीजिंग शीतकालीन ओलंपिक छोड़ देगा लेकिन वह "आशावादी" है।</t>
+  </si>
+  <si>
+    <t>Sentence</t>
+  </si>
+  <si>
+    <t>Rating</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1210,7 @@
   <dimension ref="A1:D996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1221,17 +1221,17 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>4</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>5</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>4</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>4</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>5</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>3</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>2</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>3</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>4</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>3</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>3</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>4</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>4</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>4</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>6</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>4</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>5</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>3</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>6</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>3</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>3</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>5</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>3</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>5</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>5</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>4</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>5</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>4</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>4</v>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>3</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B64" s="1">
         <v>3</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B65" s="1">
         <v>3</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1">
         <v>5</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1">
         <v>5</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1">
         <v>4</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1">
         <v>4</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1">
         <v>6</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B72" s="1">
         <v>2</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="1">
         <v>2</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1">
         <v>2</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1">
         <v>4</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>3</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>5</v>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B78" s="1">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B79" s="1">
         <v>4</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B80" s="1">
         <v>5</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B81" s="1">
         <v>6</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B83" s="1">
         <v>3</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B84" s="1">
         <v>4</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B85" s="1">
         <v>3</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B86" s="1">
         <v>5</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B87" s="1">
         <v>2</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B88" s="1">
         <v>1</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1">
         <v>4</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B91" s="1">
         <v>3</v>
@@ -2089,7 +2089,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B92" s="1">
         <v>4</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B93" s="1">
         <v>3</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B95" s="1">
         <v>3</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B96" s="1">
         <v>3</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B97" s="1">
         <v>3</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B98" s="1">
         <v>3</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B99" s="1">
         <v>4</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B100" s="1">
         <v>1</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101" s="1">
         <v>2</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B102" s="1">
         <v>2</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B103" s="1">
         <v>2</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B104" s="1">
         <v>2</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106" s="1">
         <v>3</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B107" s="1">
         <v>3</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B108" s="1">
         <v>3</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="1">
         <v>4</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B110" s="1">
         <v>3</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B111" s="1">
         <v>4</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B112" s="1">
         <v>6</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B113" s="1">
         <v>2</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B114" s="1">
         <v>4</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B115" s="1">
         <v>4</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B116" s="1">
         <v>2</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B117" s="1">
         <v>3</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B118" s="1">
         <v>1</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="1">
         <v>2</v>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B120" s="1">
         <v>2</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B121" s="1">
         <v>1</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1">
         <v>2</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1">
         <v>2</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1">
         <v>3</v>
@@ -2402,7 +2402,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1">
         <v>3</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1">
         <v>4</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1">
         <v>4</v>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1">
         <v>3</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1">
         <v>4</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" s="1">
         <v>3</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" s="1">
         <v>3</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1">
         <v>4</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" s="1">
         <v>5</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" s="1">
         <v>2</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" s="1">
         <v>4</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" s="1">
         <v>4</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" s="1">
         <v>4</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="1">
         <v>5</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" s="1">
         <v>4</v>
@@ -2540,7 +2540,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>3</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
         <v>3</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
         <v>4</v>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
         <v>5</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
         <v>3</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
         <v>4</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
         <v>5</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
         <v>4</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
         <v>5</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
         <v>4</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
         <v>3</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
         <v>3</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
         <v>3</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
         <v>4</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" s="1">
         <v>3</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155" s="1">
         <v>4</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" s="1">
         <v>2</v>
@@ -2696,7 +2696,7 @@
     </row>
     <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157" s="1">
         <v>4</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" s="1">
         <v>3</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B159" s="1">
         <v>4</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B160" s="1">
         <v>5</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B161" s="1">
         <v>4</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B162" s="1">
         <v>4</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" s="1">
         <v>5</v>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B164" s="1">
         <v>4</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B165" s="1">
         <v>4</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B166" s="1">
         <v>4</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B167" s="1">
         <v>4</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B168" s="1">
         <v>4</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B169" s="1">
         <v>4</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B170" s="1">
         <v>5</v>
@@ -2830,7 +2830,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B171" s="1">
         <v>4</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B172" s="1">
         <v>5</v>
@@ -2850,7 +2850,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1">
         <v>4</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B174" s="1">
         <v>4</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B175" s="1">
         <v>5</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B176" s="1">
         <v>4</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1">
         <v>4</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1">
         <v>5</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1">
         <v>4</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1">
         <v>2</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B181" s="1">
         <v>2</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B182" s="1">
         <v>2</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B183" s="1">
         <v>2</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B184" s="1">
         <v>2</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B185" s="1">
         <v>2</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B186" s="1">
         <v>1</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B187" s="1">
         <v>1</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B188" s="1">
         <v>1</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B189" s="1">
         <v>1</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B190" s="1">
         <v>2</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B191" s="1">
         <v>2</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B192" s="1">
         <v>3</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B193" s="1">
         <v>3</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B194" s="1">
         <v>4</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" s="1">
         <v>2</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1">
         <v>2</v>
@@ -3070,7 +3070,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B197" s="1">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B198" s="1">
         <v>3</v>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B199" s="1">
         <v>2</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B200" s="1">
         <v>2</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B201" s="1">
         <v>2</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B202" s="1">
         <v>2</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B203" s="1">
         <v>3</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B204" s="1">
         <v>3</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B205" s="1">
         <v>3</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B206" s="1">
         <v>4</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" s="1">
         <v>4</v>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B208" s="1">
         <v>2</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" s="1">
         <v>2</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B210" s="1">
         <v>4</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B211" s="1">
         <v>2</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B212" s="1">
         <v>3</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B213" s="1">
         <v>3</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B214" s="1">
         <v>1</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B215" s="1">
         <v>2</v>
@@ -3243,7 +3243,7 @@
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1">
         <v>2</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B217" s="1">
         <v>1</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B218" s="1">
         <v>2</v>
@@ -3270,7 +3270,7 @@
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B219" s="1">
         <v>1</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B220" s="1">
         <v>1</v>
@@ -3288,7 +3288,7 @@
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B221" s="1">
         <v>1</v>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B222" s="1">
         <v>1</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B223" s="1">
         <v>1</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B224" s="1">
         <v>4</v>
@@ -3324,7 +3324,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B225" s="1">
         <v>1</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B226" s="1">
         <v>2</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B227" s="1">
         <v>2</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B228" s="1">
         <v>2</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B229" s="1">
         <v>2</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B230" s="1">
         <v>3</v>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B231" s="1">
         <v>1</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B232" s="1">
         <v>4</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B233" s="1">
         <v>3</v>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B234" s="1">
         <v>3</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B235" s="1">
         <v>2</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1">
         <v>4</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B237" s="1">
         <v>3</v>
@@ -3446,7 +3446,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B238" s="1">
         <v>2</v>
@@ -3456,7 +3456,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1">
         <v>2</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B240" s="1">
         <v>2</v>
@@ -3474,7 +3474,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B241" s="1">
         <v>3</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B242" s="1">
         <v>3</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B243" s="1">
         <v>3</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B244" s="1">
         <v>3</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B245" s="1">
         <v>2</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246" s="1">
         <v>2</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1">
         <v>2</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B248" s="1">
         <v>2</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B249" s="1">
         <v>4</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1">
         <v>4</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" s="1">
         <v>4</v>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B252" s="1">
         <v>2</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B253" s="1">
         <v>4</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B254" s="1">
         <v>2</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B255" s="1">
         <v>2</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B256" s="1">
         <v>2</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B257" s="1">
         <v>2</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B258" s="1">
         <v>1</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1">
         <v>2</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B260" s="1">
         <v>2</v>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B261" s="1">
         <v>3</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B262" s="1">
         <v>2</v>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B263" s="1">
         <v>2</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B264" s="1">
         <v>4</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B265" s="1">
         <v>2</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B266" s="1">
         <v>3</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B267" s="1">
         <v>2</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B268" s="1">
         <v>6</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B269" s="1">
         <v>4</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B270" s="1">
         <v>5</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B271" s="1">
         <v>4</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B272" s="1">
         <v>3</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B273" s="1">
         <v>5</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274" s="1">
         <v>3</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B275" s="1">
         <v>2</v>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B276" s="1">
         <v>4</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B277" s="1">
         <v>3</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1">
         <v>5</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B279" s="1">
         <v>3</v>
@@ -3843,7 +3843,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B280" s="1">
         <v>3</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B281" s="1">
         <v>4</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B282" s="1">
         <v>3</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B283" s="1">
         <v>4</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B284" s="1">
         <v>4</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B285" s="1">
         <v>3</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B286" s="1">
         <v>4</v>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B287" s="1">
         <v>2</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B288" s="1">
         <v>2</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B289" s="1">
         <v>3</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" s="1">
         <v>4</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B291" s="1">
         <v>3</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B292" s="1">
         <v>4</v>
@@ -3973,7 +3973,7 @@
     </row>
     <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B293" s="1">
         <v>1</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B294" s="1">
         <v>3</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B295" s="1">
         <v>3</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B296" s="1">
         <v>4</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B297" s="1">
         <v>4</v>
